--- a/base.xlsx
+++ b/base.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6600"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="133">
   <si>
     <t>League</t>
   </si>
@@ -98,9 +98,6 @@
     <t>CHINA - SUPER LEAGUE</t>
   </si>
   <si>
-    <t>FINLAND - YKKOSLIIGA</t>
-  </si>
-  <si>
     <t>BRAZIL - SERIE B</t>
   </si>
   <si>
@@ -113,364 +110,319 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Juarez</t>
-  </si>
-  <si>
-    <t>Atlas</t>
-  </si>
-  <si>
-    <t>Kashima Antlers</t>
-  </si>
-  <si>
-    <t>Hokkaido Consadole Sapporo</t>
-  </si>
-  <si>
-    <t>Machida</t>
-  </si>
-  <si>
-    <t>Nagoya Grampus</t>
-  </si>
-  <si>
-    <t>Verdy</t>
-  </si>
-  <si>
-    <t>Cerezo Osaka</t>
-  </si>
-  <si>
     <t>JAPAN - J2 LEAGUE</t>
   </si>
   <si>
-    <t>Fujieda MYFC</t>
-  </si>
-  <si>
-    <t>Mito</t>
-  </si>
-  <si>
-    <t>Iwaki</t>
-  </si>
-  <si>
-    <t>Oita Trinita</t>
-  </si>
-  <si>
-    <t>Kofu</t>
-  </si>
-  <si>
-    <t>Tokushima</t>
-  </si>
-  <si>
-    <t>Yokohama FC</t>
-  </si>
-  <si>
-    <t>Blaublitz</t>
-  </si>
-  <si>
-    <t>Albirex Niigata</t>
-  </si>
-  <si>
-    <t>Sagan Tosu</t>
-  </si>
-  <si>
-    <t>Iwata</t>
-  </si>
-  <si>
-    <t>Kawasaki Frontale</t>
-  </si>
-  <si>
-    <t>Urawa Reds</t>
-  </si>
-  <si>
-    <t>Shonan Bellmare</t>
-  </si>
-  <si>
-    <t>Shimizu S-Pulse</t>
-  </si>
-  <si>
-    <t>Chiba</t>
-  </si>
-  <si>
-    <t>Gamba Osaka</t>
-  </si>
-  <si>
-    <t>Yokohama F. Marinos</t>
-  </si>
-  <si>
-    <t>Kashiwa Reysol</t>
-  </si>
-  <si>
-    <t>FC Tokyo</t>
-  </si>
-  <si>
-    <t>Montedio Yamagata</t>
-  </si>
-  <si>
-    <t>Tochigi SC</t>
-  </si>
-  <si>
-    <t>Okayama</t>
-  </si>
-  <si>
-    <t>Vegalta Sendai</t>
-  </si>
-  <si>
-    <t>Renofa Yamaguchi</t>
-  </si>
-  <si>
-    <t>Kagoshima Utd</t>
-  </si>
-  <si>
-    <t>V-Varen Nagasaki</t>
-  </si>
-  <si>
-    <t>Kumamoto</t>
-  </si>
-  <si>
-    <t>Jeju Utd</t>
-  </si>
-  <si>
-    <t>Seoul</t>
-  </si>
-  <si>
     <t>SOUTH KOREA - K LEAGUE 2</t>
   </si>
   <si>
-    <t>Gimpo FC</t>
-  </si>
-  <si>
-    <t>Asan</t>
-  </si>
-  <si>
-    <t>Daegu</t>
-  </si>
-  <si>
-    <t>Pohang</t>
-  </si>
-  <si>
-    <t>Busan</t>
-  </si>
-  <si>
-    <t>Bucheon FC 1995</t>
-  </si>
-  <si>
-    <t>Tianjin Jinmen Tiger</t>
-  </si>
-  <si>
-    <t>Changchun Yatai</t>
-  </si>
-  <si>
-    <t>Shanghai Shenhua</t>
-  </si>
-  <si>
-    <t>Shandong Taishan</t>
-  </si>
-  <si>
     <t>FINLAND - VEIKKAUSLIIGA</t>
   </si>
   <si>
-    <t>Ilves</t>
-  </si>
-  <si>
-    <t>HJK</t>
-  </si>
-  <si>
     <t>EGYPT - PREMIER LEAGUE</t>
   </si>
   <si>
-    <t>Arab Contractors</t>
-  </si>
-  <si>
-    <t>Future FC</t>
-  </si>
-  <si>
-    <t>KaPa</t>
-  </si>
-  <si>
-    <t>TPS</t>
-  </si>
-  <si>
-    <t>SalPa</t>
-  </si>
-  <si>
-    <t>Jaro</t>
-  </si>
-  <si>
-    <t>FINLAND - YKKONEN</t>
-  </si>
-  <si>
-    <t>JJK Jyvaskyla</t>
-  </si>
-  <si>
-    <t>Rovaniemi</t>
-  </si>
-  <si>
     <t>SWEDEN - ALLSVENSKAN</t>
   </si>
   <si>
-    <t>Elfsborg</t>
-  </si>
-  <si>
-    <t>Brommapojkarna</t>
-  </si>
-  <si>
-    <t>Mjallby</t>
-  </si>
-  <si>
-    <t>Sirius</t>
-  </si>
-  <si>
     <t>URUGUAY - PRIMERA DIVISION</t>
   </si>
   <si>
-    <t>Cerro Largo</t>
-  </si>
-  <si>
-    <t>Liverpool M.</t>
-  </si>
-  <si>
-    <t>America MG</t>
-  </si>
-  <si>
-    <t>Operario</t>
-  </si>
-  <si>
-    <t>VPS</t>
-  </si>
-  <si>
-    <t>Ekenas</t>
-  </si>
-  <si>
-    <t>ICELAND - BESTA DEILD KARLA</t>
-  </si>
-  <si>
-    <t>Akranes</t>
-  </si>
-  <si>
-    <t>Kopavogur</t>
-  </si>
-  <si>
-    <t>KR Reykjavik</t>
-  </si>
-  <si>
-    <t>Stjarnan</t>
-  </si>
-  <si>
-    <t>Smouha</t>
-  </si>
-  <si>
-    <t>Enppi</t>
-  </si>
-  <si>
-    <t>Boston River</t>
-  </si>
-  <si>
-    <t>CA Cerro</t>
-  </si>
-  <si>
-    <t>ZED</t>
-  </si>
-  <si>
-    <t>National Bank Egypt</t>
-  </si>
-  <si>
-    <t>Valur</t>
-  </si>
-  <si>
-    <t>Fylkir</t>
-  </si>
-  <si>
-    <t>Penarol</t>
-  </si>
-  <si>
-    <t>Maldonado</t>
-  </si>
-  <si>
-    <t>Goias</t>
-  </si>
-  <si>
-    <t>Chapecoense-SC</t>
-  </si>
-  <si>
     <t>BRAZIL - SERIE A</t>
   </si>
   <si>
-    <t>Flamengo RJ</t>
-  </si>
-  <si>
-    <t>Cuiaba</t>
-  </si>
-  <si>
-    <t>Sao Paulo</t>
-  </si>
-  <si>
-    <t>Bragantino</t>
-  </si>
-  <si>
-    <t>Atl. San Luis</t>
-  </si>
-  <si>
-    <t>Club America</t>
-  </si>
-  <si>
     <t>USA - MLS</t>
   </si>
   <si>
-    <t>CF Montreal</t>
-  </si>
-  <si>
-    <t>Vancouver Whitecaps</t>
-  </si>
-  <si>
-    <t>Columbus Crew</t>
-  </si>
-  <si>
-    <t>Toronto FC</t>
-  </si>
-  <si>
-    <t>FC Cincinnati</t>
-  </si>
-  <si>
-    <t>Inter Miami</t>
-  </si>
-  <si>
-    <t>Orlando City</t>
-  </si>
-  <si>
-    <t>DC United</t>
-  </si>
-  <si>
-    <t>Philadelphia Union</t>
-  </si>
-  <si>
-    <t>New York Red Bulls</t>
-  </si>
-  <si>
-    <t>Austin FC</t>
-  </si>
-  <si>
-    <t>New York City</t>
-  </si>
-  <si>
-    <t>Guadalajara Chivas</t>
-  </si>
-  <si>
-    <t>Toluca</t>
-  </si>
-  <si>
-    <t>U.A.N.L.- Tigres</t>
-  </si>
-  <si>
-    <t>Necaxa</t>
-  </si>
-  <si>
-    <t>Real Salt Lake</t>
-  </si>
-  <si>
-    <t>Atlanta Utd</t>
-  </si>
-  <si>
-    <t>Seattle Sounders</t>
-  </si>
-  <si>
-    <t>New England Revolution</t>
+    <t>Cruz Azul</t>
+  </si>
+  <si>
+    <t>Mazatlan FC</t>
+  </si>
+  <si>
+    <t>Avispa Fukuoka</t>
+  </si>
+  <si>
+    <t>Kyoto</t>
+  </si>
+  <si>
+    <t>Ehime</t>
+  </si>
+  <si>
+    <t>Kusatsu</t>
+  </si>
+  <si>
+    <t>Daejeon</t>
+  </si>
+  <si>
+    <t>Jeonbuk</t>
+  </si>
+  <si>
+    <t>Gangwon</t>
+  </si>
+  <si>
+    <t>Gwangju FC</t>
+  </si>
+  <si>
+    <t>Ansan Greeners</t>
+  </si>
+  <si>
+    <t>Jeonnam</t>
+  </si>
+  <si>
+    <t>Cheongju</t>
+  </si>
+  <si>
+    <t>Seoul E-Land</t>
+  </si>
+  <si>
+    <t>Nantong Zhiyun</t>
+  </si>
+  <si>
+    <t>Chengdu Rongcheng</t>
+  </si>
+  <si>
+    <t>Beijing Guoan</t>
+  </si>
+  <si>
+    <t>Wuhan Three Towns</t>
+  </si>
+  <si>
+    <t>Zhejiang Professional</t>
+  </si>
+  <si>
+    <t>Meizhou Hakka</t>
+  </si>
+  <si>
+    <t>AIK</t>
+  </si>
+  <si>
+    <t>Kalmar</t>
+  </si>
+  <si>
+    <t>Varnamo</t>
+  </si>
+  <si>
+    <t>Goteborg</t>
+  </si>
+  <si>
+    <t>NORWAY - ELITESERIEN</t>
+  </si>
+  <si>
+    <t>Bodo/Glimt</t>
+  </si>
+  <si>
+    <t>Brann</t>
+  </si>
+  <si>
+    <t>Baladiyat El Mahalla</t>
+  </si>
+  <si>
+    <t>Al Masry</t>
+  </si>
+  <si>
+    <t>Fenix</t>
+  </si>
+  <si>
+    <t>River Plate</t>
+  </si>
+  <si>
+    <t>Coritiba</t>
+  </si>
+  <si>
+    <t>Paysandu PA</t>
+  </si>
+  <si>
+    <t>GAIS</t>
+  </si>
+  <si>
+    <t>Hammarby</t>
+  </si>
+  <si>
+    <t>Malmo FF</t>
+  </si>
+  <si>
+    <t>Halmstad</t>
+  </si>
+  <si>
+    <t>HamKam</t>
+  </si>
+  <si>
+    <t>Tromso</t>
+  </si>
+  <si>
+    <t>Haugesund</t>
+  </si>
+  <si>
+    <t>Sarpsborg 08</t>
+  </si>
+  <si>
+    <t>KFUM Oslo</t>
+  </si>
+  <si>
+    <t>Viking</t>
+  </si>
+  <si>
+    <t>Molde</t>
+  </si>
+  <si>
+    <t>Lillestrom</t>
+  </si>
+  <si>
+    <t>KuPS</t>
+  </si>
+  <si>
+    <t>Gnistan</t>
+  </si>
+  <si>
+    <t>Mariehamn</t>
+  </si>
+  <si>
+    <t>Haka</t>
+  </si>
+  <si>
+    <t>Progreso</t>
+  </si>
+  <si>
+    <t>Racing Montevideo</t>
+  </si>
+  <si>
+    <t>El Gouna</t>
+  </si>
+  <si>
+    <t>Ceramica Cleopatra</t>
+  </si>
+  <si>
+    <t>Zamalek</t>
+  </si>
+  <si>
+    <t>El Ismaily</t>
+  </si>
+  <si>
+    <t>Rosenborg</t>
+  </si>
+  <si>
+    <t>Odd</t>
+  </si>
+  <si>
+    <t>U.N.A.M.- Pumas</t>
+  </si>
+  <si>
+    <t>Club Leon</t>
+  </si>
+  <si>
+    <t>Nacional</t>
+  </si>
+  <si>
+    <t>Rampla Juniors</t>
+  </si>
+  <si>
+    <t>Cruzeiro</t>
+  </si>
+  <si>
+    <t>Corinthians</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
+  </si>
+  <si>
+    <t>Fluminense</t>
+  </si>
+  <si>
+    <t>Juventude</t>
+  </si>
+  <si>
+    <t>Gremio</t>
+  </si>
+  <si>
+    <t>Ituano</t>
+  </si>
+  <si>
+    <t>Botafogo SP</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Vasco</t>
+  </si>
+  <si>
+    <t>Defensor Sp.</t>
+  </si>
+  <si>
+    <t>Wanderers</t>
+  </si>
+  <si>
+    <t>Atletico GO</t>
+  </si>
+  <si>
+    <t>Athletico-PR</t>
+  </si>
+  <si>
+    <t>Palmeiras</t>
+  </si>
+  <si>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>Vitoria</t>
+  </si>
+  <si>
+    <t>Criciuma</t>
+  </si>
+  <si>
+    <t>Guarani</t>
+  </si>
+  <si>
+    <t>Sport Recife</t>
+  </si>
+  <si>
+    <t>Botafogo RJ</t>
+  </si>
+  <si>
+    <t>Atletico-MG</t>
+  </si>
+  <si>
+    <t>Houston Dynamo</t>
+  </si>
+  <si>
+    <t>Los Angeles FC</t>
+  </si>
+  <si>
+    <t>San Jose Earthquakes</t>
+  </si>
+  <si>
+    <t>Chicago Fire</t>
+  </si>
+  <si>
+    <t>Sporting Kansas City</t>
+  </si>
+  <si>
+    <t>FC Dallas</t>
+  </si>
+  <si>
+    <t>Pachuca</t>
+  </si>
+  <si>
+    <t>Monterrey</t>
+  </si>
+  <si>
+    <t>Colorado Rapids</t>
+  </si>
+  <si>
+    <t>St. Louis City</t>
+  </si>
+  <si>
+    <t>Los Angeles Galaxy</t>
+  </si>
+  <si>
+    <t>Minnesota United</t>
+  </si>
+  <si>
+    <t>Portland Timbers</t>
+  </si>
+  <si>
+    <t>Nashville SC</t>
   </si>
 </sst>
 </file>
@@ -830,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W56"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,8 +793,8 @@
     <col min="1" max="1" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -865,10 +817,10 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -936,1040 +888,1040 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B2" s="8">
-        <v>6.9444444444444441E-3</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F2" s="4">
-        <v>2.1</v>
+        <v>1.36</v>
       </c>
       <c r="G2" s="4">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="H2" s="4">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="I2" s="4">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="J2" s="4">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="K2" s="4">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L2" s="5">
-        <v>3.8200000000000003</v>
+        <v>3.1840000000000002</v>
       </c>
       <c r="M2" s="5">
-        <v>6.7799999999999994</v>
+        <v>5.37</v>
       </c>
       <c r="N2" s="6">
         <v>1.6</v>
       </c>
       <c r="O2" s="6">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="P2" s="6">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="Q2" s="6">
-        <v>2.2000000000000002</v>
+        <v>1.8</v>
       </c>
       <c r="R2" s="5">
-        <v>0.99739242525620253</v>
+        <v>1.0518298397145025</v>
       </c>
       <c r="S2" s="5">
-        <v>0.72729334707639348</v>
+        <v>0.60394183989385231</v>
       </c>
       <c r="T2" s="5">
-        <v>-0.27009907817980905</v>
+        <v>-0.4478879998206502</v>
       </c>
       <c r="U2" s="6">
-        <v>1.9000000000000001</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="V2" s="6">
-        <v>1.2999999999999998</v>
+        <v>1.3</v>
       </c>
       <c r="W2" s="6">
-        <v>-0.60000000000000031</v>
+        <v>-0.40000000000000013</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B3" s="8">
-        <v>0.25</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F3" s="4">
-        <v>1.45</v>
+        <v>2.1</v>
       </c>
       <c r="G3" s="4">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="H3" s="4">
-        <v>6.25</v>
+        <v>3.9</v>
       </c>
       <c r="I3" s="4">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="J3" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="K3" s="4">
         <v>2.1</v>
       </c>
-      <c r="K3" s="4">
-        <v>1.91</v>
-      </c>
       <c r="L3" s="5">
-        <v>3.2700000000000005</v>
+        <v>3.04</v>
       </c>
       <c r="M3" s="5">
-        <v>2.8600000000000003</v>
+        <v>2.38</v>
       </c>
       <c r="N3" s="6">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="O3" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="P3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0.79478475077974453</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0.4333457083457084</v>
+      </c>
+      <c r="T3" s="5">
+        <v>-0.36143904243403613</v>
+      </c>
+      <c r="U3" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="V3" s="6">
         <v>0.8</v>
       </c>
-      <c r="P3" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="R3" s="5">
-        <v>1.0429302751883396</v>
-      </c>
-      <c r="S3" s="5">
-        <v>0.53096564941766178</v>
-      </c>
-      <c r="T3" s="5">
-        <v>-0.51196462577067781</v>
-      </c>
-      <c r="U3" s="6">
-        <v>2.1</v>
-      </c>
-      <c r="V3" s="6">
-        <v>1</v>
-      </c>
       <c r="W3" s="6">
-        <v>-1.1000000000000001</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B4" s="8">
-        <v>0.25</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F4" s="4">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="G4" s="4">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H4" s="4">
-        <v>4.33</v>
+        <v>3.3</v>
       </c>
       <c r="I4" s="4">
-        <v>2.15</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="J4" s="4">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="K4" s="4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L4" s="5">
-        <v>4.0619999999999994</v>
+        <v>5.76</v>
       </c>
       <c r="M4" s="5">
-        <v>5.7700000000000005</v>
+        <v>3.7600000000000002</v>
       </c>
       <c r="N4" s="6">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="O4" s="6">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="P4" s="6">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="Q4" s="6">
         <v>1.4</v>
       </c>
       <c r="R4" s="5">
-        <v>1.2629798477029799</v>
+        <v>0.74191755113956259</v>
       </c>
       <c r="S4" s="5">
-        <v>0.85653456621531066</v>
+        <v>0.51055147750799912</v>
       </c>
       <c r="T4" s="5">
-        <v>-0.40644528148766923</v>
+        <v>-0.23136607363156347</v>
       </c>
       <c r="U4" s="6">
-        <v>1.7</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="V4" s="6">
-        <v>1.1000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="W4" s="6">
-        <v>-0.59999999999999987</v>
+        <v>-0.79999999999999982</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B5" s="8">
-        <v>0.25</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F5" s="4">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="G5" s="4">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H5" s="4">
-        <v>2.5</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="I5" s="4">
-        <v>2.35</v>
+        <v>1.83</v>
       </c>
       <c r="J5" s="4">
-        <v>1.57</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="K5" s="4">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="L5" s="5">
-        <v>4.08</v>
+        <v>2.02</v>
       </c>
       <c r="M5" s="5">
-        <v>3.536</v>
+        <v>2.6799999999999997</v>
       </c>
       <c r="N5" s="6">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="O5" s="6">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="P5" s="6">
         <v>1</v>
       </c>
       <c r="Q5" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0.47052384172059625</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0.56653840139061806</v>
+      </c>
+      <c r="T5" s="5">
+        <v>9.6014559670021815E-2</v>
+      </c>
+      <c r="U5" s="6">
         <v>1</v>
       </c>
-      <c r="R5" s="5">
-        <v>1.1042779711909361</v>
-      </c>
-      <c r="S5" s="5">
-        <v>0.7879024565039956</v>
-      </c>
-      <c r="T5" s="5">
-        <v>-0.31637551468694047</v>
-      </c>
-      <c r="U5" s="6">
-        <v>1.4</v>
-      </c>
       <c r="V5" s="6">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="W5" s="6">
-        <v>-0.29999999999999982</v>
+        <v>-9.9999999999999978E-2</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B6" s="8">
-        <v>0.25</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F6" s="4">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="G6" s="4">
         <v>3.3</v>
       </c>
       <c r="H6" s="4">
-        <v>2.5</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="I6" s="4">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="J6" s="4">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="K6" s="4">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="L6" s="5">
-        <v>4.3519999999999994</v>
+        <v>5.42</v>
       </c>
       <c r="M6" s="5">
-        <v>1.54</v>
+        <v>3.0620000000000003</v>
       </c>
       <c r="N6" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O6" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="P6" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="R6" s="5">
+        <v>1.2982168229610684</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0.80670304468478915</v>
+      </c>
+      <c r="T6" s="5">
+        <v>-0.49151377827627929</v>
+      </c>
+      <c r="U6" s="6">
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="V6" s="6">
         <v>1.4</v>
       </c>
-      <c r="O6" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="P6" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="R6" s="5">
-        <v>0.87192649082183971</v>
-      </c>
-      <c r="S6" s="5">
-        <v>0.35304055043185484</v>
-      </c>
-      <c r="T6" s="5">
-        <v>-0.51888594038998481</v>
-      </c>
-      <c r="U6" s="6">
-        <v>1.2999999999999998</v>
-      </c>
-      <c r="V6" s="6">
-        <v>0.8</v>
-      </c>
       <c r="W6" s="6">
-        <v>-0.49999999999999978</v>
+        <v>-0.50000000000000022</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B7" s="8">
-        <v>0.25</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F7" s="4">
-        <v>1.85</v>
+        <v>3.75</v>
       </c>
       <c r="G7" s="4">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="H7" s="4">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="I7" s="4">
-        <v>1.98</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="J7" s="4">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="K7" s="4">
         <v>1.83</v>
       </c>
       <c r="L7" s="5">
-        <v>1.6620000000000001</v>
+        <v>1.51</v>
       </c>
       <c r="M7" s="5">
-        <v>3.3800000000000003</v>
+        <v>9.16</v>
       </c>
       <c r="N7" s="6">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O7" s="6">
+        <v>3</v>
+      </c>
+      <c r="P7" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0.34808344390387735</v>
+      </c>
+      <c r="S7" s="5">
+        <v>1.6669535445757249</v>
+      </c>
+      <c r="T7" s="5">
+        <v>1.3188701006718475</v>
+      </c>
+      <c r="U7" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V7" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="W7" s="6">
         <v>1</v>
-      </c>
-      <c r="P7" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="R7" s="5">
-        <v>0.6220510919532688</v>
-      </c>
-      <c r="S7" s="5">
-        <v>0.65625857381075581</v>
-      </c>
-      <c r="T7" s="5">
-        <v>3.420748185748701E-2</v>
-      </c>
-      <c r="U7" s="6">
-        <v>1</v>
-      </c>
-      <c r="V7" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="W7" s="6">
-        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B8" s="8">
-        <v>0.25</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F8" s="4">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="G8" s="4">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H8" s="4">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="I8" s="4">
-        <v>2.0499999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="J8" s="4">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="K8" s="4">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L8" s="5">
-        <v>3.2439999999999998</v>
+        <v>1</v>
       </c>
       <c r="M8" s="5">
-        <v>3.992</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="N8" s="6">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="O8" s="6">
-        <v>1.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="P8" s="6">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="Q8" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R8" s="5">
-        <v>0.80377598236423198</v>
+        <v>0.39197768234896391</v>
       </c>
       <c r="S8" s="5">
-        <v>0.74500137119308618</v>
+        <v>1.3104014897183778</v>
       </c>
       <c r="T8" s="5">
-        <v>-5.8774611171145796E-2</v>
+        <v>0.91842380736941387</v>
       </c>
       <c r="U8" s="6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="V8" s="6">
-        <v>1.5</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="W8" s="6">
-        <v>0.5</v>
+        <v>0.50000000000000022</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B9" s="8">
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F9" s="4">
-        <v>1.67</v>
+        <v>7.5</v>
       </c>
       <c r="G9" s="4">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="H9" s="4">
-        <v>5.5</v>
+        <v>1.36</v>
       </c>
       <c r="I9" s="4">
-        <v>2.25</v>
+        <v>1.57</v>
       </c>
       <c r="J9" s="4">
-        <v>1.62</v>
+        <v>2.35</v>
       </c>
       <c r="K9" s="4">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="L9" s="5">
-        <v>4.51</v>
+        <v>2.1960000000000002</v>
       </c>
       <c r="M9" s="5">
-        <v>2.34</v>
+        <v>4.41</v>
       </c>
       <c r="N9" s="6">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="O9" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P9" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0.56115154274990331</v>
+      </c>
+      <c r="S9" s="5">
+        <v>1.2913728389444949</v>
+      </c>
+      <c r="T9" s="5">
+        <v>0.73022129619459164</v>
+      </c>
+      <c r="U9" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V9" s="6">
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="W9" s="6">
         <v>0.8</v>
-      </c>
-      <c r="P9" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="R9" s="5">
-        <v>1.596680948778467</v>
-      </c>
-      <c r="S9" s="5">
-        <v>0.59513332878674219</v>
-      </c>
-      <c r="T9" s="5">
-        <v>-1.0015476199917248</v>
-      </c>
-      <c r="U9" s="6">
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="V9" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="W9" s="6">
-        <v>-1.2000000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B10" s="8">
-        <v>0.27083333333333331</v>
+        <v>0.3576388888888889</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F10" s="4">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="G10" s="4">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H10" s="4">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I10" s="4">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="J10" s="4">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="K10" s="4">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="L10" s="5">
-        <v>5.09</v>
+        <v>5.5239999999999991</v>
       </c>
       <c r="M10" s="5">
-        <v>3.9400000000000004</v>
+        <v>6.9959999999999996</v>
       </c>
       <c r="N10" s="6">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="O10" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="P10" s="6">
         <v>1</v>
       </c>
-      <c r="P10" s="6">
-        <v>2</v>
-      </c>
       <c r="Q10" s="6">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="R10" s="5">
-        <v>1.0824521813883516</v>
+        <v>1.8956001024577067</v>
       </c>
       <c r="S10" s="5">
-        <v>0.6253181974544203</v>
+        <v>0.95588235294117641</v>
       </c>
       <c r="T10" s="5">
-        <v>-0.45713398393393134</v>
+        <v>-0.93971774951653031</v>
       </c>
       <c r="U10" s="6">
-        <v>1.4</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="V10" s="6">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="W10" s="6">
-        <v>0.10000000000000009</v>
+        <v>-1.1000000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B11" s="8">
-        <v>0.27083333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F11" s="4">
-        <v>3.25</v>
+        <v>1.38</v>
       </c>
       <c r="G11" s="4">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="H11" s="4">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="I11" s="4">
-        <v>1.7</v>
+        <v>1.44</v>
       </c>
       <c r="J11" s="4">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="K11" s="4">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="L11" s="5">
-        <v>4.91</v>
+        <v>5.2140000000000004</v>
       </c>
       <c r="M11" s="5">
-        <v>2.8240000000000003</v>
+        <v>6.09</v>
       </c>
       <c r="N11" s="6">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="O11" s="6">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="P11" s="6">
         <v>1.4</v>
       </c>
       <c r="Q11" s="6">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="R11" s="5">
-        <v>0.97854351129585793</v>
+        <v>1.8948171157162368</v>
       </c>
       <c r="S11" s="5">
-        <v>0.80275138337227259</v>
+        <v>0.47369717834114117</v>
       </c>
       <c r="T11" s="5">
-        <v>-0.17579212792358534</v>
+        <v>-1.4211199373750956</v>
       </c>
       <c r="U11" s="6">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="V11" s="6">
-        <v>1.2999999999999998</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W11" s="6">
-        <v>-0.70000000000000018</v>
+        <v>-1.1000000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B12" s="8">
-        <v>0.27083333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F12" s="4">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="G12" s="4">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="H12" s="4">
-        <v>4.0999999999999996</v>
+        <v>5.75</v>
       </c>
       <c r="I12" s="4">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="J12" s="4">
-        <v>1.98</v>
+        <v>2.25</v>
       </c>
       <c r="K12" s="4">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L12" s="5">
-        <v>4.1420000000000003</v>
+        <v>6.0860000000000003</v>
       </c>
       <c r="M12" s="5">
-        <v>4.1120000000000001</v>
+        <v>6.68</v>
       </c>
       <c r="N12" s="6">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="O12" s="6">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="P12" s="6">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="Q12" s="6">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="R12" s="5">
-        <v>1.2292844263164491</v>
+        <v>1.8681801636891522</v>
       </c>
       <c r="S12" s="5">
-        <v>0.74378800300608039</v>
+        <v>0.7931188585273925</v>
       </c>
       <c r="T12" s="5">
-        <v>-0.48549642331036869</v>
+        <v>-1.0750613051617597</v>
       </c>
       <c r="U12" s="6">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="V12" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="W12" s="6">
-        <v>-0.89999999999999991</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B13" s="8">
-        <v>0.27083333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F13" s="4">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="G13" s="4">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H13" s="4">
-        <v>3.2</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="I13" s="4">
-        <v>1.75</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="J13" s="4">
-        <v>2.0499999999999998</v>
+        <v>1.83</v>
       </c>
       <c r="K13" s="4">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="L13" s="5">
-        <v>4.4159999999999995</v>
+        <v>1.5860000000000001</v>
       </c>
       <c r="M13" s="5">
-        <v>2.08</v>
+        <v>5.4300000000000006</v>
       </c>
       <c r="N13" s="6">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="O13" s="6">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="P13" s="6">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="Q13" s="6">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="R13" s="5">
-        <v>1.718968274924783</v>
+        <v>0.47388078706740872</v>
       </c>
       <c r="S13" s="5">
-        <v>0.72808545222338328</v>
+        <v>1.0713174925142472</v>
       </c>
       <c r="T13" s="5">
-        <v>-0.99088282270139971</v>
+        <v>0.59743670544683858</v>
       </c>
       <c r="U13" s="6">
-        <v>2.0999999999999996</v>
+        <v>1.2</v>
       </c>
       <c r="V13" s="6">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="W13" s="6">
-        <v>-1.2999999999999996</v>
+        <v>0.90000000000000013</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B14" s="8">
-        <v>0.29166666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F14" s="4">
-        <v>2.4500000000000002</v>
+        <v>2</v>
       </c>
       <c r="G14" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="H14" s="4">
         <v>3.5</v>
       </c>
-      <c r="H14" s="4">
-        <v>2.88</v>
-      </c>
       <c r="I14" s="4">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="J14" s="4">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="K14" s="4">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="L14" s="5">
-        <v>5.16</v>
+        <v>2.4259999999999997</v>
       </c>
       <c r="M14" s="5">
-        <v>3.5100000000000002</v>
+        <v>2.5179999999999998</v>
       </c>
       <c r="N14" s="6">
         <v>1.8</v>
       </c>
       <c r="O14" s="6">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="P14" s="6">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="Q14" s="6">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="R14" s="5">
-        <v>1.0750967249069716</v>
+        <v>1.2695106662138083</v>
       </c>
       <c r="S14" s="5">
-        <v>0.78894126221712424</v>
+        <v>0.98134287895852257</v>
       </c>
       <c r="T14" s="5">
-        <v>-0.28615546268984737</v>
+        <v>-0.28816778725528569</v>
       </c>
       <c r="U14" s="6">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="V14" s="6">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W14" s="6">
-        <v>-0.60000000000000009</v>
+        <v>-0.19999999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B15" s="8">
-        <v>0.29166666666666669</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F15" s="4">
-        <v>2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G15" s="4">
         <v>3.6</v>
       </c>
       <c r="H15" s="4">
-        <v>3.5</v>
+        <v>1.62</v>
       </c>
       <c r="I15" s="4">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="J15" s="4">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="K15" s="4">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="L15" s="5">
-        <v>2.0100000000000002</v>
+        <v>2.5640000000000001</v>
       </c>
       <c r="M15" s="5">
-        <v>4.6659999999999995</v>
+        <v>3.7599999999999993</v>
       </c>
       <c r="N15" s="6">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="O15" s="6">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="P15" s="6">
         <v>1.4</v>
       </c>
       <c r="Q15" s="6">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="R15" s="5">
-        <v>0.72195994669862262</v>
+        <v>0.3206642946722647</v>
       </c>
       <c r="S15" s="5">
-        <v>0.98114304278097375</v>
+        <v>0.90513023655511804</v>
       </c>
       <c r="T15" s="5">
-        <v>0.25918309608235113</v>
+        <v>0.58446594188285328</v>
       </c>
       <c r="U15" s="6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="V15" s="6">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="W15" s="6">
-        <v>0.5</v>
+        <v>0.59999999999999987</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B16" s="8">
-        <v>0.29166666666666669</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F16" s="4">
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G16" s="4">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="H16" s="4">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="I16" s="4">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="J16" s="4">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="K16" s="4">
         <v>2</v>
       </c>
       <c r="L16" s="5">
-        <v>1.64</v>
+        <v>2.44</v>
       </c>
       <c r="M16" s="5">
-        <v>5.12</v>
+        <v>2.88</v>
       </c>
       <c r="N16" s="6">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="O16" s="6">
         <v>1</v>
@@ -1981,1255 +1933,1255 @@
         <v>1.6</v>
       </c>
       <c r="R16" s="5">
-        <v>0.49806174217938926</v>
+        <v>0.67080541545587136</v>
       </c>
       <c r="S16" s="5">
-        <v>0.61798245614035086</v>
+        <v>0.72101833976833984</v>
       </c>
       <c r="T16" s="5">
-        <v>0.1199207139609616</v>
+        <v>5.0212924312468488E-2</v>
       </c>
       <c r="U16" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="V16" s="6">
         <v>1.1000000000000001</v>
       </c>
       <c r="W16" s="6">
-        <v>0</v>
+        <v>-0.19999999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B17" s="8">
-        <v>0.29166666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F17" s="4">
-        <v>2.2000000000000002</v>
+        <v>1.83</v>
       </c>
       <c r="G17" s="4">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H17" s="4">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="I17" s="4">
-        <v>2.0499999999999998</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J17" s="4">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="K17" s="4">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L17" s="5">
-        <v>1.86</v>
+        <v>3.504</v>
       </c>
       <c r="M17" s="5">
-        <v>3.4559999999999995</v>
+        <v>4.5600000000000005</v>
       </c>
       <c r="N17" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O17" s="6">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="P17" s="6">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="Q17" s="6">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="R17" s="5">
-        <v>0.7544802867383511</v>
+        <v>1.2778769165323784</v>
       </c>
       <c r="S17" s="5">
-        <v>0.90262140166141391</v>
+        <v>0.9458822458822459</v>
       </c>
       <c r="T17" s="5">
-        <v>0.14814111492306281</v>
+        <v>-0.33199467065013255</v>
       </c>
       <c r="U17" s="6">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="V17" s="6">
         <v>1.1000000000000001</v>
       </c>
       <c r="W17" s="6">
-        <v>0.20000000000000007</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B18" s="8">
-        <v>0.29166666666666669</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F18" s="4">
-        <v>2.0499999999999998</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G18" s="4">
         <v>3.4</v>
       </c>
       <c r="H18" s="4">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I18" s="4">
+        <v>1.73</v>
+      </c>
+      <c r="J18" s="4">
         <v>2.08</v>
       </c>
-      <c r="J18" s="4">
-        <v>1.73</v>
-      </c>
       <c r="K18" s="4">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="L18" s="5">
-        <v>3.9200000000000004</v>
+        <v>6.4120000000000008</v>
       </c>
       <c r="M18" s="5">
-        <v>3.7</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="N18" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O18" s="6">
         <v>1.4</v>
       </c>
-      <c r="O18" s="6">
+      <c r="P18" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="R18" s="5">
+        <v>1.2750610948191594</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0.86451477322818138</v>
+      </c>
+      <c r="T18" s="5">
+        <v>-0.41054632159097804</v>
+      </c>
+      <c r="U18" s="6">
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="V18" s="6">
         <v>1</v>
       </c>
-      <c r="P18" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>2</v>
-      </c>
-      <c r="R18" s="5">
-        <v>0.89336380235782453</v>
-      </c>
-      <c r="S18" s="5">
-        <v>0.62439684361142989</v>
-      </c>
-      <c r="T18" s="5">
-        <v>-0.26896695874639465</v>
-      </c>
-      <c r="U18" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="V18" s="6">
-        <v>1.1000000000000001</v>
-      </c>
       <c r="W18" s="6">
-        <v>-0.59999999999999987</v>
+        <v>-0.90000000000000013</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B19" s="8">
-        <v>0.29166666666666669</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F19" s="4">
-        <v>1.62</v>
+        <v>1.2</v>
       </c>
       <c r="G19" s="4">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="H19" s="4">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="I19" s="4">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="J19" s="4">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="K19" s="4">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="L19" s="5">
-        <v>3.2</v>
+        <v>3.8820000000000001</v>
       </c>
       <c r="M19" s="5">
-        <v>3.14</v>
+        <v>4.43</v>
       </c>
       <c r="N19" s="6">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="O19" s="6">
         <v>1.2</v>
       </c>
       <c r="P19" s="6">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="Q19" s="6">
         <v>2</v>
       </c>
       <c r="R19" s="5">
-        <v>1.0489796644155323</v>
+        <v>1.7702938949999343</v>
       </c>
       <c r="S19" s="5">
-        <v>0.76259163941499242</v>
+        <v>0.70362678944722279</v>
       </c>
       <c r="T19" s="5">
-        <v>-0.28638802500053984</v>
+        <v>-1.0666671055527115</v>
       </c>
       <c r="U19" s="6">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="V19" s="6">
-        <v>0.89999999999999991</v>
+        <v>0.7</v>
       </c>
       <c r="W19" s="6">
-        <v>-0.90000000000000013</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B20" s="8">
-        <v>0.29166666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F20" s="4">
-        <v>2.9</v>
+        <v>2.35</v>
       </c>
       <c r="G20" s="4">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H20" s="4">
-        <v>2.35</v>
+        <v>2.8</v>
       </c>
       <c r="I20" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="J20" s="4">
         <v>2</v>
       </c>
-      <c r="J20" s="4">
-        <v>1.85</v>
-      </c>
       <c r="K20" s="4">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="L20" s="5">
-        <v>3.18</v>
+        <v>2.78</v>
       </c>
       <c r="M20" s="5">
-        <v>6.9019999999999992</v>
+        <v>2.552</v>
       </c>
       <c r="N20" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="P20" s="6">
         <v>1.2</v>
       </c>
-      <c r="O20" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="P20" s="6">
-        <v>1</v>
-      </c>
       <c r="Q20" s="6">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="R20" s="5">
-        <v>0.7999143026004728</v>
+        <v>0.55282021040534979</v>
       </c>
       <c r="S20" s="5">
-        <v>1.2538675766807679</v>
+        <v>0.42682955295939512</v>
       </c>
       <c r="T20" s="5">
-        <v>0.45395327408029507</v>
+        <v>-0.12599065744595467</v>
       </c>
       <c r="U20" s="6">
-        <v>1.2</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="V20" s="6">
-        <v>1.6</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="W20" s="6">
-        <v>0.40000000000000013</v>
+        <v>-0.30000000000000027</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B21" s="8">
-        <v>0.29166666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F21" s="4">
-        <v>2.75</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G21" s="4">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="H21" s="4">
-        <v>2.5499999999999998</v>
+        <v>3.1</v>
       </c>
       <c r="I21" s="4">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="J21" s="4">
-        <v>1.62</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K21" s="4">
-        <v>1.91</v>
+        <v>1.53</v>
       </c>
       <c r="L21" s="5">
-        <v>2.7119999999999997</v>
+        <v>1.8859999999999999</v>
       </c>
       <c r="M21" s="5">
-        <v>5.17</v>
+        <v>9.1020000000000003</v>
       </c>
       <c r="N21" s="6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O21" s="6">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="P21" s="6">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="Q21" s="6">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="R21" s="5">
-        <v>0.69124080526519549</v>
+        <v>0.59332842506273598</v>
       </c>
       <c r="S21" s="5">
-        <v>0.97145760091983779</v>
+        <v>1.2545212418300653</v>
       </c>
       <c r="T21" s="5">
-        <v>0.2802167956546423</v>
+        <v>0.66119281676732933</v>
       </c>
       <c r="U21" s="6">
         <v>1.5</v>
       </c>
       <c r="V21" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="W21" s="6">
-        <v>-0.29999999999999982</v>
+        <v>0.20000000000000018</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B22" s="8">
-        <v>0.3125</v>
+        <v>0.5</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F22" s="4">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G22" s="4">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H22" s="4">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="I22" s="4">
-        <v>2.08</v>
+        <v>1.53</v>
       </c>
       <c r="J22" s="4">
-        <v>1.73</v>
+        <v>2.4</v>
       </c>
       <c r="K22" s="4">
+        <v>1.44</v>
+      </c>
+      <c r="L22" s="5">
+        <v>2.42</v>
+      </c>
+      <c r="M22" s="5">
+        <v>4.8879999999999999</v>
+      </c>
+      <c r="N22" s="6">
+        <v>1</v>
+      </c>
+      <c r="O22" s="6">
         <v>1.8</v>
       </c>
-      <c r="L22" s="5">
-        <v>4.9799999999999995</v>
-      </c>
-      <c r="M22" s="5">
-        <v>3.1399999999999997</v>
-      </c>
-      <c r="N22" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="O22" s="6">
-        <v>1.2</v>
-      </c>
       <c r="P22" s="6">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="Q22" s="6">
         <v>1.2</v>
       </c>
       <c r="R22" s="5">
-        <v>1.0863582497445479</v>
+        <v>0.70129263406671372</v>
       </c>
       <c r="S22" s="5">
-        <v>0.78865371368488746</v>
+        <v>1.0655808855992108</v>
       </c>
       <c r="T22" s="5">
-        <v>-0.29770453605966041</v>
+        <v>0.36428825153249711</v>
       </c>
       <c r="U22" s="6">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V22" s="6">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="W22" s="6">
-        <v>-0.30000000000000004</v>
+        <v>0.79999999999999982</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B23" s="8">
-        <v>0.3125</v>
+        <v>0.5</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F23" s="4">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="G23" s="4">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="H23" s="4">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="I23" s="4">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="J23" s="4">
-        <v>1.67</v>
+        <v>2.88</v>
       </c>
       <c r="K23" s="4">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="L23" s="5">
-        <v>3.22</v>
+        <v>2.6459999999999999</v>
       </c>
       <c r="M23" s="5">
-        <v>3.72</v>
+        <v>5.2200000000000006</v>
       </c>
       <c r="N23" s="6">
         <v>1.8</v>
       </c>
       <c r="O23" s="6">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="P23" s="6">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q23" s="6">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="R23" s="5">
-        <v>1.1780056699078212</v>
+        <v>1.2483340632179907</v>
       </c>
       <c r="S23" s="5">
-        <v>0.76245826245826254</v>
+        <v>0.97728560606839954</v>
       </c>
       <c r="T23" s="5">
-        <v>-0.41554740744955865</v>
+        <v>-0.27104845714959114</v>
       </c>
       <c r="U23" s="6">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="V23" s="6">
-        <v>1.6</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="W23" s="6">
-        <v>0.40000000000000013</v>
+        <v>0.50000000000000022</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B24" s="8">
-        <v>0.33333333333333331</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F24" s="4">
-        <v>2.2000000000000002</v>
+        <v>1.42</v>
       </c>
       <c r="G24" s="4">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="H24" s="4">
-        <v>3.1</v>
+        <v>6.25</v>
       </c>
       <c r="I24" s="4">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="J24" s="4">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="K24" s="4">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="L24" s="5">
-        <v>1.9899999999999998</v>
+        <v>5.0579999999999998</v>
       </c>
       <c r="M24" s="5">
-        <v>8.98</v>
+        <v>2.6599999999999997</v>
       </c>
       <c r="N24" s="6">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="O24" s="6">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="P24" s="6">
         <v>1</v>
       </c>
       <c r="Q24" s="6">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="R24" s="5">
-        <v>0.5384491573135739</v>
+        <v>1.5832633659349935</v>
       </c>
       <c r="S24" s="5">
-        <v>0.92773271173271188</v>
+        <v>0.67240118269530025</v>
       </c>
       <c r="T24" s="5">
-        <v>0.38928355441913798</v>
+        <v>-0.91086218323969326</v>
       </c>
       <c r="U24" s="6">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="V24" s="6">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="W24" s="6">
-        <v>-0.30000000000000004</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B25" s="8">
-        <v>0.3576388888888889</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F25" s="4">
-        <v>1.67</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G25" s="4">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="H25" s="4">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="I25" s="4">
-        <v>1.67</v>
+        <v>1.93</v>
       </c>
       <c r="J25" s="4">
-        <v>2.15</v>
+        <v>1.93</v>
       </c>
       <c r="K25" s="4">
         <v>1.7</v>
       </c>
       <c r="L25" s="5">
-        <v>3.7300000000000004</v>
+        <v>3.87</v>
       </c>
       <c r="M25" s="5">
-        <v>2.09</v>
+        <v>4.2480000000000002</v>
       </c>
       <c r="N25" s="6">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="O25" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="P25" s="6">
         <v>1</v>
       </c>
-      <c r="P25" s="6">
-        <v>0.2</v>
-      </c>
       <c r="Q25" s="6">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="R25" s="5">
-        <v>1.7766220766220768</v>
+        <v>0.63767490673809779</v>
       </c>
       <c r="S25" s="5">
-        <v>0.74467061178024629</v>
+        <v>0.74177339248123653</v>
       </c>
       <c r="T25" s="5">
-        <v>-1.0319514648418306</v>
+        <v>0.10409848574313874</v>
       </c>
       <c r="U25" s="6">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="V25" s="6">
-        <v>0.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W25" s="6">
-        <v>-1.4</v>
+        <v>-0.39999999999999991</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B26" s="8">
-        <v>0.375</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F26" s="4">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="G26" s="4">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="H26" s="4">
-        <v>2.63</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="I26" s="4">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="J26" s="4">
-        <v>2.08</v>
+        <v>1.7</v>
       </c>
       <c r="K26" s="4">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="L26" s="5">
-        <v>5.14</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="M26" s="5">
-        <v>3.0720000000000001</v>
+        <v>5.2299999999999995</v>
       </c>
       <c r="N26" s="6">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="O26" s="6">
         <v>1.6</v>
       </c>
       <c r="P26" s="6">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="Q26" s="6">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="R26" s="5">
-        <v>1.6747899159663866</v>
+        <v>0.57710921325051756</v>
       </c>
       <c r="S26" s="5">
-        <v>1.0655155937146066</v>
+        <v>0.97402351348599936</v>
       </c>
       <c r="T26" s="5">
-        <v>-0.60927432225178002</v>
+        <v>0.3969143002354818</v>
       </c>
       <c r="U26" s="6">
-        <v>1.7</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="V26" s="6">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="W26" s="6">
-        <v>-0.30000000000000004</v>
+        <v>0.39999999999999991</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B27" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F27" s="4">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="G27" s="4">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H27" s="4">
-        <v>2.25</v>
+        <v>1.98</v>
       </c>
       <c r="I27" s="4">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="J27" s="4">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="K27" s="4">
-        <v>2.02</v>
+        <v>1.78</v>
       </c>
       <c r="L27" s="5">
-        <v>3.254</v>
+        <v>2.5</v>
       </c>
       <c r="M27" s="5">
-        <v>4.04</v>
+        <v>5.81</v>
       </c>
       <c r="N27" s="6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O27" s="6">
+        <v>2</v>
+      </c>
+      <c r="P27" s="6">
         <v>1.2</v>
       </c>
-      <c r="P27" s="6">
+      <c r="Q27" s="6">
+        <v>2</v>
+      </c>
+      <c r="R27" s="5">
+        <v>0.55408008479997073</v>
+      </c>
+      <c r="S27" s="5">
+        <v>1.17909663765112</v>
+      </c>
+      <c r="T27" s="5">
+        <v>0.62501655285114932</v>
+      </c>
+      <c r="U27" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="V27" s="6">
         <v>1.6</v>
       </c>
-      <c r="Q27" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="R27" s="5">
-        <v>0.66903555596696385</v>
-      </c>
-      <c r="S27" s="5">
-        <v>0.75708141321044553</v>
-      </c>
-      <c r="T27" s="5">
-        <v>8.8045857243481684E-2</v>
-      </c>
-      <c r="U27" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="V27" s="6">
-        <v>1.4</v>
-      </c>
       <c r="W27" s="6">
-        <v>0.59999999999999987</v>
+        <v>0.20000000000000018</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B28" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F28" s="4">
-        <v>4.3499999999999996</v>
+        <v>1.55</v>
       </c>
       <c r="G28" s="4">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H28" s="4">
-        <v>1.65</v>
+        <v>5.6</v>
       </c>
       <c r="I28" s="4">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="J28" s="4">
-        <v>2.0499999999999998</v>
+        <v>1.85</v>
       </c>
       <c r="K28" s="4">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="L28" s="5">
-        <v>4.4000000000000004</v>
+        <v>3.274</v>
       </c>
       <c r="M28" s="5">
-        <v>1.488</v>
+        <v>3.8899999999999997</v>
       </c>
       <c r="N28" s="6">
         <v>1.8</v>
       </c>
       <c r="O28" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="P28" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="6">
         <v>0.8</v>
       </c>
-      <c r="P28" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="Q28" s="6">
-        <v>1.6</v>
-      </c>
       <c r="R28" s="5">
-        <v>1.1337383796498575</v>
+        <v>1.1709781306272533</v>
       </c>
       <c r="S28" s="5">
-        <v>0.65023408362787471</v>
+        <v>0.74781387195180304</v>
       </c>
       <c r="T28" s="5">
-        <v>-0.48350429602198275</v>
+        <v>-0.42316425867545027</v>
       </c>
       <c r="U28" s="6">
-        <v>1.7000000000000002</v>
+        <v>1.3</v>
       </c>
       <c r="V28" s="6">
-        <v>0.60000000000000009</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W28" s="6">
-        <v>-1.1000000000000001</v>
+        <v>-0.19999999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B29" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.59375</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F29" s="4">
-        <v>3.55</v>
+        <v>1.62</v>
       </c>
       <c r="G29" s="4">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="H29" s="4">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="I29" s="4">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="J29" s="4">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="K29" s="4">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="L29" s="5">
-        <v>3.8359999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="M29" s="5">
-        <v>2.71</v>
+        <v>5</v>
       </c>
       <c r="N29" s="6">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="O29" s="6">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="P29" s="6">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="Q29" s="6">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="R29" s="5">
-        <v>1.2733523664751174</v>
+        <v>0.84920919723551302</v>
       </c>
       <c r="S29" s="5">
-        <v>0.79268192683171801</v>
+        <v>0.38662686127082413</v>
       </c>
       <c r="T29" s="5">
-        <v>-0.48067043964339939</v>
+        <v>-0.4625823359646889</v>
       </c>
       <c r="U29" s="6">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="V29" s="6">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W29" s="6">
-        <v>-0.40000000000000013</v>
+        <v>-0.29999999999999982</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B30" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.625</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F30" s="4">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="G30" s="4">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="H30" s="4">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I30" s="4">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="J30" s="4">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
       <c r="K30" s="4">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="L30" s="5">
-        <v>3.02</v>
+        <v>2.8420000000000001</v>
       </c>
       <c r="M30" s="5">
-        <v>5.4399999999999995</v>
+        <v>3.5199999999999996</v>
       </c>
       <c r="N30" s="6">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="O30" s="6">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="P30" s="6">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="Q30" s="6">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="R30" s="5">
-        <v>0.93012940464553362</v>
+        <v>0.80850297434742624</v>
       </c>
       <c r="S30" s="5">
-        <v>0.84332674571805</v>
+        <v>0.76982989263715618</v>
       </c>
       <c r="T30" s="5">
-        <v>-8.6802658927483622E-2</v>
+        <v>-3.8673081710270063E-2</v>
       </c>
       <c r="U30" s="6">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V30" s="6">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="W30" s="6">
-        <v>0.5</v>
+        <v>9.9999999999999867E-2</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B31" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F31" s="4">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="G31" s="4">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="H31" s="4">
-        <v>4.33</v>
+        <v>8.5</v>
       </c>
       <c r="I31" s="4">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="J31" s="4">
-        <v>2.35</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K31" s="4">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="L31" s="5">
-        <v>6.5780000000000003</v>
+        <v>2.9359999999999999</v>
       </c>
       <c r="M31" s="5">
-        <v>5.3159999999999998</v>
+        <v>4.76</v>
       </c>
       <c r="N31" s="6">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="O31" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="P31" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="R31" s="5">
+        <v>1.3443670680069864</v>
+      </c>
+      <c r="S31" s="5">
+        <v>0.73433885515928854</v>
+      </c>
+      <c r="T31" s="5">
+        <v>-0.61002821284769781</v>
+      </c>
+      <c r="U31" s="6">
         <v>1.6</v>
       </c>
-      <c r="P31" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="Q31" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="R31" s="5">
-        <v>1.6594965438182254</v>
-      </c>
-      <c r="S31" s="5">
-        <v>0.98199863002494592</v>
-      </c>
-      <c r="T31" s="5">
-        <v>-0.6774979137932795</v>
-      </c>
-      <c r="U31" s="6">
-        <v>2.0999999999999996</v>
-      </c>
       <c r="V31" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W31" s="6">
-        <v>-0.89999999999999947</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B32" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F32" s="4">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="G32" s="4">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H32" s="4">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="I32" s="4">
-        <v>1.88</v>
+        <v>2.4</v>
       </c>
       <c r="J32" s="4">
-        <v>1.98</v>
+        <v>1.53</v>
       </c>
       <c r="K32" s="4">
-        <v>1.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L32" s="5">
-        <v>4.3920000000000003</v>
+        <v>4.4079999999999995</v>
       </c>
       <c r="M32" s="5">
-        <v>3.1779999999999999</v>
+        <v>2.25</v>
       </c>
       <c r="N32" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="O32" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="P32" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="R32" s="5">
+        <v>1.4780255900809938</v>
+      </c>
+      <c r="S32" s="5">
+        <v>0.41062271062271066</v>
+      </c>
+      <c r="T32" s="5">
+        <v>-1.067402879458283</v>
+      </c>
+      <c r="U32" s="6">
         <v>2</v>
       </c>
-      <c r="O32" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="P32" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="Q32" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="R32" s="5">
-        <v>1.2185979431560423</v>
-      </c>
-      <c r="S32" s="5">
-        <v>0.53619586789503015</v>
-      </c>
-      <c r="T32" s="5">
-        <v>-0.68240207526101215</v>
-      </c>
-      <c r="U32" s="6">
-        <v>1.9</v>
-      </c>
       <c r="V32" s="6">
-        <v>1.1000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="W32" s="6">
-        <v>-0.79999999999999982</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B33" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F33" s="4">
-        <v>3.4</v>
+        <v>1.73</v>
       </c>
       <c r="G33" s="4">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H33" s="4">
-        <v>2.2000000000000002</v>
+        <v>4.75</v>
       </c>
       <c r="I33" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.08</v>
       </c>
       <c r="J33" s="4">
+        <v>1.82</v>
+      </c>
+      <c r="K33" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="L33" s="5">
+        <v>3.6620000000000004</v>
+      </c>
+      <c r="M33" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="N33" s="6">
         <v>1.6</v>
       </c>
-      <c r="K33" s="4">
-        <v>1.91</v>
-      </c>
-      <c r="L33" s="5">
-        <v>2.5920000000000001</v>
-      </c>
-      <c r="M33" s="5">
-        <v>4.7859999999999996</v>
-      </c>
-      <c r="N33" s="6">
-        <v>1</v>
-      </c>
       <c r="O33" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="P33" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="Q33" s="6">
         <v>1.8</v>
       </c>
-      <c r="P33" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Q33" s="6">
-        <v>1.6</v>
-      </c>
       <c r="R33" s="5">
-        <v>0.67976253283168431</v>
+        <v>1.0504833039593346</v>
       </c>
       <c r="S33" s="5">
-        <v>1.0880522441534755</v>
+        <v>0.21404761904761904</v>
       </c>
       <c r="T33" s="5">
-        <v>0.40828971132179115</v>
+        <v>-0.8364356849117156</v>
       </c>
       <c r="U33" s="6">
-        <v>1.3</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="V33" s="6">
-        <v>2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="W33" s="6">
-        <v>0.7</v>
+        <v>-1.4000000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B34" s="8">
-        <v>0.45833333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F34" s="4">
-        <v>1.7</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G34" s="4">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H34" s="4">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="I34" s="4">
         <v>2.2000000000000002</v>
@@ -3238,13 +3190,13 @@
         <v>1.65</v>
       </c>
       <c r="K34" s="4">
-        <v>2.2000000000000002</v>
+        <v>1.95</v>
       </c>
       <c r="L34" s="5">
-        <v>2.4940000000000002</v>
+        <v>4.1599999999999993</v>
       </c>
       <c r="M34" s="5">
-        <v>2.1960000000000002</v>
+        <v>2.67</v>
       </c>
       <c r="N34" s="6">
         <v>1.4</v>
@@ -3256,107 +3208,107 @@
         <v>0.6</v>
       </c>
       <c r="Q34" s="6">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="R34" s="5">
-        <v>0.98729927176298882</v>
+        <v>0.89815112077592796</v>
       </c>
       <c r="S34" s="5">
-        <v>0.43775844231751176</v>
+        <v>0.41544389457091524</v>
       </c>
       <c r="T34" s="5">
-        <v>-0.54954082944547711</v>
+        <v>-0.48270722620501272</v>
       </c>
       <c r="U34" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="V34" s="6">
         <v>0.6</v>
       </c>
       <c r="W34" s="6">
-        <v>-0.50000000000000011</v>
+        <v>-0.79999999999999993</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B35" s="8">
-        <v>0.45833333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F35" s="4">
-        <v>1.33</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="G35" s="4">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="H35" s="4">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="I35" s="4">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="J35" s="4">
-        <v>2.2000000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="K35" s="4">
-        <v>2.0499999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="L35" s="5">
-        <v>3.4799999999999995</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="M35" s="5">
-        <v>6</v>
+        <v>4.67</v>
       </c>
       <c r="N35" s="6">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="O35" s="6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="P35" s="6">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="Q35" s="6">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="R35" s="5">
-        <v>1.1569932775547709</v>
+        <v>0.87631312722067123</v>
       </c>
       <c r="S35" s="5">
-        <v>0.57307692307692304</v>
+        <v>0.50201557409911657</v>
       </c>
       <c r="T35" s="5">
-        <v>-0.58391635447784784</v>
+        <v>-0.37429755312155466</v>
       </c>
       <c r="U35" s="6">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="V35" s="6">
         <v>1.1000000000000001</v>
       </c>
       <c r="W35" s="6">
-        <v>-0.79999999999999982</v>
+        <v>-0.39999999999999991</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B36" s="8">
-        <v>0.45833333333333331</v>
+        <v>0.75</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>105</v>
@@ -3365,69 +3317,69 @@
         <v>106</v>
       </c>
       <c r="F36" s="4">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="G36" s="4">
-        <v>4.3499999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H36" s="4">
-        <v>4.8</v>
+        <v>7</v>
       </c>
       <c r="I36" s="4">
-        <v>1.39</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="J36" s="4">
-        <v>2.77</v>
+        <v>1.75</v>
       </c>
       <c r="K36" s="4">
-        <v>1.47</v>
+        <v>2.1</v>
       </c>
       <c r="L36" s="5">
-        <v>5.2679999999999989</v>
+        <v>1.9439999999999997</v>
       </c>
       <c r="M36" s="5">
-        <v>5.9799999999999995</v>
+        <v>1.9</v>
       </c>
       <c r="N36" s="6">
+        <v>1</v>
+      </c>
+      <c r="O36" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="P36" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="Q36" s="6">
         <v>1.8</v>
       </c>
-      <c r="O36" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="P36" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="Q36" s="6">
+      <c r="R36" s="5">
+        <v>0.75139151482555033</v>
+      </c>
+      <c r="S36" s="5">
+        <v>0.30151515151515151</v>
+      </c>
+      <c r="T36" s="5">
+        <v>-0.44987636331039882</v>
+      </c>
+      <c r="U36" s="6">
         <v>1.4</v>
       </c>
-      <c r="R36" s="5">
-        <v>1.0730795297380358</v>
-      </c>
-      <c r="S36" s="5">
-        <v>0.70894049453371488</v>
-      </c>
-      <c r="T36" s="5">
-        <v>-0.36413903520432089</v>
-      </c>
-      <c r="U36" s="6">
-        <v>1.6</v>
-      </c>
       <c r="V36" s="6">
-        <v>1.2</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="W36" s="6">
-        <v>-0.40000000000000013</v>
+        <v>-0.79999999999999982</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B37" s="8">
-        <v>0.45833333333333331</v>
+        <v>0.75</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>107</v>
@@ -3436,69 +3388,69 @@
         <v>108</v>
       </c>
       <c r="F37" s="4">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="G37" s="4">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="H37" s="4">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="I37" s="4">
-        <v>1.34</v>
+        <v>1.98</v>
       </c>
       <c r="J37" s="4">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="K37" s="4">
-        <v>1.32</v>
+        <v>1.83</v>
       </c>
       <c r="L37" s="5">
-        <v>4.4799999999999995</v>
+        <v>2.76</v>
       </c>
       <c r="M37" s="5">
-        <v>3.5040000000000004</v>
+        <v>3.7</v>
       </c>
       <c r="N37" s="6">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="O37" s="6">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="P37" s="6">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="Q37" s="6">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="R37" s="5">
-        <v>1.2698051039023426</v>
+        <v>1.0603377315838616</v>
       </c>
       <c r="S37" s="5">
-        <v>1.0332287178526507</v>
+        <v>0.63782613585245163</v>
       </c>
       <c r="T37" s="5">
-        <v>-0.23657638604969189</v>
+        <v>-0.42251159573140995</v>
       </c>
       <c r="U37" s="6">
-        <v>2.5</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="V37" s="6">
-        <v>2.2000000000000002</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W37" s="6">
-        <v>-0.29999999999999982</v>
+        <v>-0.60000000000000009</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B38" s="8">
-        <v>0.47916666666666669</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>109</v>
@@ -3507,69 +3459,69 @@
         <v>110</v>
       </c>
       <c r="F38" s="4">
-        <v>2.62</v>
+        <v>2.25</v>
       </c>
       <c r="G38" s="4">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="H38" s="4">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="I38" s="4">
-        <v>2.35</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J38" s="4">
-        <v>1.47</v>
+        <v>1.65</v>
       </c>
       <c r="K38" s="4">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="L38" s="5">
-        <v>2.9839999999999995</v>
+        <v>1.75</v>
       </c>
       <c r="M38" s="5">
-        <v>4.25</v>
+        <v>3.5259999999999998</v>
       </c>
       <c r="N38" s="6">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="O38" s="6">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="P38" s="6">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="Q38" s="6">
         <v>0.8</v>
       </c>
       <c r="R38" s="5">
-        <v>0.78131773399014781</v>
+        <v>0.61354359925788504</v>
       </c>
       <c r="S38" s="5">
-        <v>0.87587431424882356</v>
+        <v>0.52315907341311496</v>
       </c>
       <c r="T38" s="5">
-        <v>9.4556580258675749E-2</v>
+        <v>-9.0384525844770081E-2</v>
       </c>
       <c r="U38" s="6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="V38" s="6">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="W38" s="6">
-        <v>0.19999999999999996</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B39" s="8">
-        <v>0.52083333333333337</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>111</v>
@@ -3578,69 +3530,69 @@
         <v>112</v>
       </c>
       <c r="F39" s="4">
-        <v>2.25</v>
+        <v>1.57</v>
       </c>
       <c r="G39" s="4">
-        <v>3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H39" s="4">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="I39" s="4">
-        <v>2.2999999999999998</v>
+        <v>1.95</v>
       </c>
       <c r="J39" s="4">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="K39" s="4">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L39" s="5">
-        <v>4</v>
+        <v>2.7159999999999997</v>
       </c>
       <c r="M39" s="5">
-        <v>3.4</v>
+        <v>5.0900000000000007</v>
       </c>
       <c r="N39" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="O39" s="6">
         <v>1.4</v>
       </c>
-      <c r="O39" s="6">
+      <c r="P39" s="6">
         <v>0.8</v>
       </c>
-      <c r="P39" s="6">
+      <c r="Q39" s="6">
         <v>1.8</v>
       </c>
-      <c r="Q39" s="6">
-        <v>1.4</v>
-      </c>
       <c r="R39" s="5">
-        <v>0.87515976087404668</v>
+        <v>1.2235826176400715</v>
       </c>
       <c r="S39" s="5">
-        <v>0.55430171530977979</v>
+        <v>0.83947983673047621</v>
       </c>
       <c r="T39" s="5">
-        <v>-0.32085804556426689</v>
+        <v>-0.38410278090959526</v>
       </c>
       <c r="U39" s="6">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="V39" s="6">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W39" s="6">
-        <v>-9.9999999999999867E-2</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B40" s="8">
-        <v>0.54166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>113</v>
@@ -3649,69 +3601,69 @@
         <v>114</v>
       </c>
       <c r="F40" s="4">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="G40" s="4">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="H40" s="4">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="I40" s="4">
-        <v>2.02</v>
+        <v>2.25</v>
       </c>
       <c r="J40" s="4">
         <v>1.62</v>
       </c>
       <c r="K40" s="4">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="L40" s="5">
-        <v>3.6859999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="M40" s="5">
-        <v>2.85</v>
+        <v>10.9</v>
       </c>
       <c r="N40" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="O40" s="6">
         <v>1.8</v>
       </c>
-      <c r="O40" s="6">
-        <v>1.2</v>
-      </c>
       <c r="P40" s="6">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q40" s="6">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="R40" s="5">
-        <v>1.1294347848631985</v>
+        <v>0.88607085346215775</v>
       </c>
       <c r="S40" s="5">
-        <v>0.77100886269832913</v>
+        <v>0.98012440458092631</v>
       </c>
       <c r="T40" s="5">
-        <v>-0.35842592216486935</v>
+        <v>9.4053551118768564E-2</v>
       </c>
       <c r="U40" s="6">
         <v>1.4</v>
       </c>
       <c r="V40" s="6">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="W40" s="6">
-        <v>-0.39999999999999991</v>
+        <v>0.40000000000000013</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B41" s="8">
-        <v>0.58333333333333337</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>115</v>
@@ -3720,69 +3672,69 @@
         <v>116</v>
       </c>
       <c r="F41" s="4">
-        <v>1.37</v>
+        <v>3.2</v>
       </c>
       <c r="G41" s="4">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="H41" s="4">
-        <v>6.1</v>
+        <v>2.35</v>
       </c>
       <c r="I41" s="4">
-        <v>1.24</v>
+        <v>2.25</v>
       </c>
       <c r="J41" s="4">
-        <v>3.65</v>
+        <v>1.62</v>
       </c>
       <c r="K41" s="4">
-        <v>1.42</v>
+        <v>1.91</v>
       </c>
       <c r="L41" s="5">
-        <v>4.6300000000000008</v>
+        <v>2.79</v>
       </c>
       <c r="M41" s="5">
-        <v>7.7099999999999991</v>
+        <v>1.1659999999999999</v>
       </c>
       <c r="N41" s="6">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="O41" s="6">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="P41" s="6">
         <v>1.4</v>
       </c>
       <c r="Q41" s="6">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="R41" s="5">
-        <v>1.5860738247025608</v>
+        <v>0.93690883584500606</v>
       </c>
       <c r="S41" s="5">
-        <v>0.909945652621585</v>
+        <v>0.37584128884307549</v>
       </c>
       <c r="T41" s="5">
-        <v>-0.67612817208097575</v>
+        <v>-0.56106754700193062</v>
       </c>
       <c r="U41" s="6">
-        <v>2.9000000000000004</v>
+        <v>1.2</v>
       </c>
       <c r="V41" s="6">
-        <v>1.5</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="W41" s="6">
-        <v>-1.4000000000000004</v>
+        <v>-0.30000000000000004</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B42" s="8">
-        <v>0.64583333333333337</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>117</v>
@@ -3791,69 +3743,69 @@
         <v>118</v>
       </c>
       <c r="F42" s="4">
-        <v>1.36</v>
+        <v>1.91</v>
       </c>
       <c r="G42" s="4">
-        <v>4.33</v>
+        <v>3.7</v>
       </c>
       <c r="H42" s="4">
-        <v>7</v>
+        <v>3.9</v>
       </c>
       <c r="I42" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="J42" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="K42" s="4">
         <v>1.95</v>
       </c>
-      <c r="J42" s="4">
-        <v>1.85</v>
-      </c>
-      <c r="K42" s="4">
-        <v>2.25</v>
-      </c>
       <c r="L42" s="5">
-        <v>3.1260000000000003</v>
+        <v>3.55</v>
       </c>
       <c r="M42" s="5">
-        <v>2.91</v>
+        <v>6.14</v>
       </c>
       <c r="N42" s="6">
         <v>2</v>
       </c>
       <c r="O42" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P42" s="6">
         <v>1</v>
       </c>
-      <c r="P42" s="6">
-        <v>0.4</v>
-      </c>
       <c r="Q42" s="6">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="R42" s="5">
-        <v>1.3227438467550028</v>
+        <v>1.2651594689811252</v>
       </c>
       <c r="S42" s="5">
-        <v>0.67522266387672392</v>
+        <v>1.2837301587301586</v>
       </c>
       <c r="T42" s="5">
-        <v>-0.64752118287827887</v>
+        <v>1.857068974903342E-2</v>
       </c>
       <c r="U42" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="V42" s="6">
         <v>1.6</v>
       </c>
-      <c r="V42" s="6">
-        <v>0.7</v>
-      </c>
       <c r="W42" s="6">
-        <v>-0.90000000000000013</v>
+        <v>-0.19999999999999996</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B43" s="8">
-        <v>0.70833333333333337</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>119</v>
@@ -3862,170 +3814,170 @@
         <v>120</v>
       </c>
       <c r="F43" s="4">
-        <v>1.6</v>
+        <v>2.88</v>
       </c>
       <c r="G43" s="4">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H43" s="4">
-        <v>6</v>
+        <v>2.35</v>
       </c>
       <c r="I43" s="4">
-        <v>2.2999999999999998</v>
+        <v>1.7</v>
       </c>
       <c r="J43" s="4">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="K43" s="4">
-        <v>2.25</v>
+        <v>1.57</v>
       </c>
       <c r="L43" s="5">
-        <v>4.6519999999999992</v>
+        <v>2.54</v>
       </c>
       <c r="M43" s="5">
-        <v>1.85</v>
+        <v>4.34</v>
       </c>
       <c r="N43" s="6">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="O43" s="6">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="P43" s="6">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="Q43" s="6">
         <v>0.6</v>
       </c>
       <c r="R43" s="5">
-        <v>1.4632249799144466</v>
+        <v>0.9731624458471938</v>
       </c>
       <c r="S43" s="5">
-        <v>0.29885297682169365</v>
+        <v>1.1153466014298152</v>
       </c>
       <c r="T43" s="5">
-        <v>-1.1643720030927529</v>
+        <v>0.14218415558262143</v>
       </c>
       <c r="U43" s="6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="V43" s="6">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="W43" s="6">
-        <v>-1.1000000000000001</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B44" s="8">
-        <v>0.83333333333333337</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="F44" s="4">
-        <v>1.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G44" s="4">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H44" s="4">
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="I44" s="4">
-        <v>2.02</v>
+        <v>1.48</v>
       </c>
       <c r="J44" s="4">
-        <v>1.88</v>
+        <v>2.6</v>
       </c>
       <c r="K44" s="4">
+        <v>1.44</v>
+      </c>
+      <c r="L44" s="5">
+        <v>1.81</v>
+      </c>
+      <c r="M44" s="5">
+        <v>7.7299999999999995</v>
+      </c>
+      <c r="N44" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="O44" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="P44" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L44" s="5">
-        <v>2.54</v>
-      </c>
-      <c r="M44" s="5">
-        <v>7.49</v>
-      </c>
-      <c r="N44" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="O44" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="P44" s="6">
-        <v>1</v>
-      </c>
       <c r="Q44" s="6">
-        <v>1.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="R44" s="5">
-        <v>1.1158540727620907</v>
+        <v>0.62904096806535836</v>
       </c>
       <c r="S44" s="5">
-        <v>0.89476190476190465</v>
+        <v>1.0122305764411028</v>
       </c>
       <c r="T44" s="5">
-        <v>-0.22109216800018605</v>
+        <v>0.38318960837574445</v>
       </c>
       <c r="U44" s="6">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="V44" s="6">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="W44" s="6">
-        <v>-9.9999999999999867E-2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B45" s="8">
-        <v>0.83333333333333337</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="F45" s="4">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="G45" s="4">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="H45" s="4">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I45" s="4">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="J45" s="4">
-        <v>1.67</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K45" s="4">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="L45" s="5">
-        <v>3.25</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="M45" s="5">
-        <v>3.25</v>
+        <v>5.17</v>
       </c>
       <c r="N45" s="6">
         <v>1.8</v>
@@ -4034,809 +3986,312 @@
         <v>1</v>
       </c>
       <c r="P45" s="6">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q45" s="6">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="R45" s="5">
-        <v>1.1904198900403835</v>
+        <v>1.1184519029528419</v>
       </c>
       <c r="S45" s="5">
-        <v>0.64812963259211853</v>
+        <v>0.5971283604605937</v>
       </c>
       <c r="T45" s="5">
-        <v>-0.54229025744826498</v>
+        <v>-0.52132354249224822</v>
       </c>
       <c r="U45" s="6">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="V45" s="6">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="W45" s="6">
-        <v>-0.6</v>
+        <v>-0.40000000000000013</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B46" s="8">
-        <v>0.83333333333333337</v>
+        <v>0.92083333333333339</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="F46" s="4">
-        <v>4.0999999999999996</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G46" s="4">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="H46" s="4">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="I46" s="4">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="J46" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="K46" s="4">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="L46" s="5">
-        <v>5.5299999999999994</v>
+        <v>1.5740000000000003</v>
       </c>
       <c r="M46" s="5">
-        <v>1.9019999999999999</v>
+        <v>5.47</v>
       </c>
       <c r="N46" s="6">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="O46" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P46" s="6">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="Q46" s="6">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="R46" s="5">
-        <v>1.4163661185484036</v>
+        <v>0.64453291811263858</v>
       </c>
       <c r="S46" s="5">
-        <v>0.75035014005602252</v>
+        <v>1.1774053189225093</v>
       </c>
       <c r="T46" s="5">
-        <v>-0.66601597849238103</v>
+        <v>0.53287240080987075</v>
       </c>
       <c r="U46" s="6">
-        <v>1.7</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="V46" s="6">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="W46" s="6">
-        <v>0</v>
+        <v>0.19999999999999973</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B47" s="8">
-        <v>0.85416666666666663</v>
+        <v>0.9375</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="F47" s="4">
-        <v>2.75</v>
+        <v>1.73</v>
       </c>
       <c r="G47" s="4">
-        <v>3.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H47" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="I47" s="4">
+        <v>1.48</v>
+      </c>
+      <c r="J47" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="K47" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="L47" s="5">
+        <v>3.8440000000000003</v>
+      </c>
+      <c r="M47" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="N47" s="6">
         <v>2.4</v>
       </c>
-      <c r="I47" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="J47" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K47" s="4">
-        <v>1.53</v>
-      </c>
-      <c r="L47" s="5">
-        <v>5.48</v>
-      </c>
-      <c r="M47" s="5">
-        <v>4.9859999999999998</v>
-      </c>
-      <c r="N47" s="6">
-        <v>2</v>
-      </c>
       <c r="O47" s="6">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="P47" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="R47" s="5">
+        <v>1.5056505393058501</v>
+      </c>
+      <c r="S47" s="5">
+        <v>0.82290381125226875</v>
+      </c>
+      <c r="T47" s="5">
+        <v>-0.68274672805358139</v>
+      </c>
+      <c r="U47" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="V47" s="6">
         <v>1.2</v>
       </c>
-      <c r="Q47" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="R47" s="5">
-        <v>1.1729181327703495</v>
-      </c>
-      <c r="S47" s="5">
-        <v>0.95908456804460585</v>
-      </c>
-      <c r="T47" s="5">
-        <v>-0.21383356472574366</v>
-      </c>
-      <c r="U47" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="V47" s="6">
-        <v>1.4</v>
-      </c>
       <c r="W47" s="6">
-        <v>-0.40000000000000013</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B48" s="8">
-        <v>0.85416666666666663</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F48" s="4">
+        <v>1.57</v>
+      </c>
+      <c r="G48" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="H48" s="4">
+        <v>5</v>
+      </c>
+      <c r="I48" s="4">
         <v>1.4</v>
       </c>
-      <c r="G48" s="4">
-        <v>5</v>
-      </c>
-      <c r="H48" s="4">
-        <v>7</v>
-      </c>
-      <c r="I48" s="4">
-        <v>1.44</v>
-      </c>
       <c r="J48" s="4">
+        <v>2.88</v>
+      </c>
+      <c r="K48" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="L48" s="5">
+        <v>4.2119999999999997</v>
+      </c>
+      <c r="M48" s="5">
+        <v>6.29</v>
+      </c>
+      <c r="N48" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="O48" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="P48" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="Q48" s="6">
+        <v>3</v>
+      </c>
+      <c r="R48" s="5">
+        <v>1.4742688365931815</v>
+      </c>
+      <c r="S48" s="5">
+        <v>0.90872357723577246</v>
+      </c>
+      <c r="T48" s="5">
+        <v>-0.56554525935740907</v>
+      </c>
+      <c r="U48" s="6">
         <v>2.7</v>
       </c>
-      <c r="K48" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="L48" s="5">
-        <v>2.6259999999999999</v>
-      </c>
-      <c r="M48" s="5">
-        <v>2.4</v>
-      </c>
-      <c r="N48" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="O48" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="P48" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="Q48" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="R48" s="5">
-        <v>1.2293052006670124</v>
-      </c>
-      <c r="S48" s="5">
-        <v>0.40955080007711586</v>
-      </c>
-      <c r="T48" s="5">
-        <v>-0.81975440058989657</v>
-      </c>
-      <c r="U48" s="6">
-        <v>1.8</v>
-      </c>
       <c r="V48" s="6">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="W48" s="6">
-        <v>-1.1000000000000001</v>
+        <v>-1.3000000000000003</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B49" s="8">
-        <v>0.85416666666666663</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F49" s="4">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="G49" s="4">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H49" s="4">
         <v>4.33</v>
       </c>
       <c r="I49" s="4">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="J49" s="4">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K49" s="4">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="L49" s="5">
-        <v>3.0259999999999998</v>
+        <v>5.2780000000000005</v>
       </c>
       <c r="M49" s="5">
-        <v>5.8800000000000008</v>
+        <v>3.4200000000000004</v>
       </c>
       <c r="N49" s="6">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="O49" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="P49" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="Q49" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="R49" s="5">
+        <v>1.5486707404707136</v>
+      </c>
+      <c r="S49" s="5">
+        <v>0.52686070577139721</v>
+      </c>
+      <c r="T49" s="5">
+        <v>-1.0218100346993164</v>
+      </c>
+      <c r="U49" s="6">
         <v>1.6</v>
       </c>
-      <c r="P49" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="Q49" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="R49" s="5">
-        <v>1.195096449147059</v>
-      </c>
-      <c r="S49" s="5">
-        <v>0.9400735294117647</v>
-      </c>
-      <c r="T49" s="5">
-        <v>-0.25502291973529434</v>
-      </c>
-      <c r="U49" s="6">
-        <v>1.3</v>
-      </c>
       <c r="V49" s="6">
-        <v>1.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W49" s="6">
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
-        <v>45479</v>
-      </c>
-      <c r="B50" s="8">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F50" s="4">
-        <v>1.67</v>
-      </c>
-      <c r="G50" s="4">
-        <v>4</v>
-      </c>
-      <c r="H50" s="4">
-        <v>5</v>
-      </c>
-      <c r="I50" s="4">
-        <v>1.57</v>
-      </c>
-      <c r="J50" s="4">
-        <v>2.35</v>
-      </c>
-      <c r="K50" s="4">
-        <v>1.57</v>
-      </c>
-      <c r="L50" s="5">
-        <v>1.8460000000000001</v>
-      </c>
-      <c r="M50" s="5">
-        <v>5.36</v>
-      </c>
-      <c r="N50" s="6">
-        <v>1</v>
-      </c>
-      <c r="O50" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="P50" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="Q50" s="6">
-        <v>2</v>
-      </c>
-      <c r="R50" s="5">
-        <v>0.74298451864991788</v>
-      </c>
-      <c r="S50" s="5">
-        <v>0.83210399156647763</v>
-      </c>
-      <c r="T50" s="5">
-        <v>8.911947291655975E-2</v>
-      </c>
-      <c r="U50" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="V50" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="W50" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
-        <v>45479</v>
-      </c>
-      <c r="B51" s="8">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F51" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="G51" s="4">
-        <v>3.8</v>
-      </c>
-      <c r="H51" s="4">
-        <v>2.4</v>
-      </c>
-      <c r="I51" s="4">
-        <v>1.67</v>
-      </c>
-      <c r="J51" s="4">
-        <v>2.15</v>
-      </c>
-      <c r="K51" s="4">
-        <v>1.57</v>
-      </c>
-      <c r="L51" s="5">
-        <v>1.3540000000000001</v>
-      </c>
-      <c r="M51" s="5">
-        <v>5.3959999999999999</v>
-      </c>
-      <c r="N51" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="O51" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="P51" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="Q51" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="R51" s="5">
-        <v>0.67393188835847073</v>
-      </c>
-      <c r="S51" s="5">
-        <v>1.0772773279352226</v>
-      </c>
-      <c r="T51" s="5">
-        <v>0.40334543957675184</v>
-      </c>
-      <c r="U51" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="V51" s="6">
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="W51" s="6">
-        <v>0.10000000000000009</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
-        <v>45479</v>
-      </c>
-      <c r="B52" s="8">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F52" s="4">
-        <v>2.9</v>
-      </c>
-      <c r="G52" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="H52" s="4">
-        <v>2.35</v>
-      </c>
-      <c r="I52" s="4">
-        <v>1.73</v>
-      </c>
-      <c r="J52" s="4">
-        <v>2.08</v>
-      </c>
-      <c r="K52" s="4">
-        <v>1.62</v>
-      </c>
-      <c r="L52" s="5">
-        <v>3.38</v>
-      </c>
-      <c r="M52" s="5">
-        <v>3.78</v>
-      </c>
-      <c r="N52" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="O52" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="P52" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="R52" s="5">
-        <v>0.90921255932016343</v>
-      </c>
-      <c r="S52" s="5">
-        <v>0.7626780626780626</v>
-      </c>
-      <c r="T52" s="5">
-        <v>-0.14653449664210083</v>
-      </c>
-      <c r="U52" s="6">
-        <v>1.2999999999999998</v>
-      </c>
-      <c r="V52" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="W52" s="6">
-        <v>-0.19999999999999973</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
-        <v>45479</v>
-      </c>
-      <c r="B53" s="8">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F53" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G53" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="H53" s="4">
-        <v>2.9</v>
-      </c>
-      <c r="I53" s="4">
-        <v>1.83</v>
-      </c>
-      <c r="J53" s="4">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="K53" s="4">
-        <v>1.67</v>
-      </c>
-      <c r="L53" s="5">
-        <v>1.8859999999999999</v>
-      </c>
-      <c r="M53" s="5">
-        <v>5.07</v>
-      </c>
-      <c r="N53" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="O53" s="6">
-        <v>2</v>
-      </c>
-      <c r="P53" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="Q53" s="6">
-        <v>2</v>
-      </c>
-      <c r="R53" s="5">
-        <v>0.83964927401459932</v>
-      </c>
-      <c r="S53" s="5">
-        <v>1.1916411457395066</v>
-      </c>
-      <c r="T53" s="5">
-        <v>0.35199187172490731</v>
-      </c>
-      <c r="U53" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="V53" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="W53" s="6">
-        <v>-0.40000000000000013</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
-        <v>45479</v>
-      </c>
-      <c r="B54" s="8">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F54" s="4">
-        <v>1.45</v>
-      </c>
-      <c r="G54" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="H54" s="4">
-        <v>6.25</v>
-      </c>
-      <c r="I54" s="4">
-        <v>1.53</v>
-      </c>
-      <c r="J54" s="4">
-        <v>2.4</v>
-      </c>
-      <c r="K54" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="L54" s="5">
-        <v>4.7039999999999997</v>
-      </c>
-      <c r="M54" s="5">
-        <v>9.798</v>
-      </c>
-      <c r="N54" s="6">
-        <v>3</v>
-      </c>
-      <c r="O54" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="P54" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="Q54" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="R54" s="5">
-        <v>1.7853641456582636</v>
-      </c>
-      <c r="S54" s="5">
-        <v>1.0005297531567741</v>
-      </c>
-      <c r="T54" s="5">
-        <v>-0.78483439250148956</v>
-      </c>
-      <c r="U54" s="6">
-        <v>2.7</v>
-      </c>
-      <c r="V54" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="W54" s="6">
-        <v>-0.90000000000000013</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
-        <v>45479</v>
-      </c>
-      <c r="B55" s="8">
-        <v>0.9375</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F55" s="4">
-        <v>1.57</v>
-      </c>
-      <c r="G55" s="4">
-        <v>4.33</v>
-      </c>
-      <c r="H55" s="4">
-        <v>5.25</v>
-      </c>
-      <c r="I55" s="4">
-        <v>1.53</v>
-      </c>
-      <c r="J55" s="4">
-        <v>2.4</v>
-      </c>
-      <c r="K55" s="4">
-        <v>1.62</v>
-      </c>
-      <c r="L55" s="5">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="M55" s="5">
-        <v>5.9659999999999993</v>
-      </c>
-      <c r="N55" s="6">
-        <v>3</v>
-      </c>
-      <c r="O55" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="P55" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="Q55" s="6">
-        <v>1</v>
-      </c>
-      <c r="R55" s="5">
-        <v>1.8109479515982521</v>
-      </c>
-      <c r="S55" s="5">
-        <v>0.82899617412319482</v>
-      </c>
-      <c r="T55" s="5">
-        <v>-0.98195177747505724</v>
-      </c>
-      <c r="U55" s="6">
-        <v>2</v>
-      </c>
-      <c r="V55" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="W55" s="6">
-        <v>-0.60000000000000009</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
-        <v>45479</v>
-      </c>
-      <c r="B56" s="8">
-        <v>0.97916666666666663</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F56" s="4">
-        <v>1.57</v>
-      </c>
-      <c r="G56" s="4">
-        <v>4.33</v>
-      </c>
-      <c r="H56" s="4">
-        <v>5.25</v>
-      </c>
-      <c r="I56" s="4">
-        <v>1.62</v>
-      </c>
-      <c r="J56" s="4">
-        <v>2.25</v>
-      </c>
-      <c r="K56" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="L56" s="5">
-        <v>2.9159999999999995</v>
-      </c>
-      <c r="M56" s="5">
-        <v>6.94</v>
-      </c>
-      <c r="N56" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="O56" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="P56" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q56" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="R56" s="5">
-        <v>1.2036001974671966</v>
-      </c>
-      <c r="S56" s="5">
-        <v>0.81551924777731233</v>
-      </c>
-      <c r="T56" s="5">
-        <v>-0.38808094968988427</v>
-      </c>
-      <c r="U56" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="V56" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="W56" s="6">
-        <v>-0.40000000000000013</v>
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/base.xlsx
+++ b/base.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="135">
   <si>
     <t>League</t>
   </si>
@@ -423,6 +423,12 @@
   </si>
   <si>
     <t>Nashville SC</t>
+  </si>
+  <si>
+    <t>Med_Pont_H_5Jogos</t>
+  </si>
+  <si>
+    <t>Med_Pont_A_5Jogos</t>
   </si>
 </sst>
 </file>
@@ -782,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:Y49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,10 +818,12 @@
     <col min="21" max="21" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="3"/>
+    <col min="24" max="24" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -885,8 +893,14 @@
       <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>45480</v>
       </c>
@@ -956,8 +970,14 @@
       <c r="W2" s="6">
         <v>-0.40000000000000013</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X2" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>45480</v>
       </c>
@@ -1027,8 +1047,14 @@
       <c r="W3" s="6">
         <v>-0.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X3" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>45480</v>
       </c>
@@ -1098,8 +1124,14 @@
       <c r="W4" s="6">
         <v>-0.79999999999999982</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X4" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>45480</v>
       </c>
@@ -1169,8 +1201,14 @@
       <c r="W5" s="6">
         <v>-9.9999999999999978E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X5" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>45480</v>
       </c>
@@ -1240,8 +1278,14 @@
       <c r="W6" s="6">
         <v>-0.50000000000000022</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X6" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>45480</v>
       </c>
@@ -1311,8 +1355,14 @@
       <c r="W7" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X7" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>45480</v>
       </c>
@@ -1382,8 +1432,14 @@
       <c r="W8" s="6">
         <v>0.50000000000000022</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X8" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>45480</v>
       </c>
@@ -1453,8 +1509,14 @@
       <c r="W9" s="6">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X9" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>45480</v>
       </c>
@@ -1524,8 +1586,14 @@
       <c r="W10" s="6">
         <v>-1.1000000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X10" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>45480</v>
       </c>
@@ -1595,8 +1663,14 @@
       <c r="W11" s="6">
         <v>-1.1000000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X11" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>45480</v>
       </c>
@@ -1666,8 +1740,14 @@
       <c r="W12" s="6">
         <v>-1.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X12" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>45480</v>
       </c>
@@ -1737,8 +1817,14 @@
       <c r="W13" s="6">
         <v>0.90000000000000013</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X13" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>45480</v>
       </c>
@@ -1808,8 +1894,14 @@
       <c r="W14" s="6">
         <v>-0.19999999999999996</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X14" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>45480</v>
       </c>
@@ -1879,8 +1971,14 @@
       <c r="W15" s="6">
         <v>0.59999999999999987</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X15" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>45480</v>
       </c>
@@ -1950,8 +2048,14 @@
       <c r="W16" s="6">
         <v>-0.19999999999999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X16" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>45480</v>
       </c>
@@ -2021,8 +2125,14 @@
       <c r="W17" s="6">
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X17" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>45480</v>
       </c>
@@ -2092,8 +2202,14 @@
       <c r="W18" s="6">
         <v>-0.90000000000000013</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X18" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y18" s="6">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>45480</v>
       </c>
@@ -2163,8 +2279,14 @@
       <c r="W19" s="6">
         <v>-1.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X19" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>45480</v>
       </c>
@@ -2234,8 +2356,14 @@
       <c r="W20" s="6">
         <v>-0.30000000000000027</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X20" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="Y20" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>45480</v>
       </c>
@@ -2305,8 +2433,14 @@
       <c r="W21" s="6">
         <v>0.20000000000000018</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X21" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="Y21" s="6">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>45480</v>
       </c>
@@ -2376,8 +2510,14 @@
       <c r="W22" s="6">
         <v>0.79999999999999982</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X22" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="Y22" s="6">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>45480</v>
       </c>
@@ -2447,8 +2587,14 @@
       <c r="W23" s="6">
         <v>0.50000000000000022</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X23" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>45480</v>
       </c>
@@ -2518,8 +2664,14 @@
       <c r="W24" s="6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X24" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="Y24" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>45480</v>
       </c>
@@ -2589,8 +2741,14 @@
       <c r="W25" s="6">
         <v>-0.39999999999999991</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X25" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="6">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>45480</v>
       </c>
@@ -2660,8 +2818,14 @@
       <c r="W26" s="6">
         <v>0.39999999999999991</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X26" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>45480</v>
       </c>
@@ -2731,8 +2895,14 @@
       <c r="W27" s="6">
         <v>0.20000000000000018</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X27" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="6">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>45480</v>
       </c>
@@ -2802,8 +2972,14 @@
       <c r="W28" s="6">
         <v>-0.19999999999999996</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X28" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="6">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>45480</v>
       </c>
@@ -2873,8 +3049,14 @@
       <c r="W29" s="6">
         <v>-0.29999999999999982</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X29" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="Y29" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>45480</v>
       </c>
@@ -2944,8 +3126,14 @@
       <c r="W30" s="6">
         <v>9.9999999999999867E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X30" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="Y30" s="6">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>45480</v>
       </c>
@@ -3015,8 +3203,14 @@
       <c r="W31" s="6">
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X31" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="Y31" s="6">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>45480</v>
       </c>
@@ -3086,8 +3280,14 @@
       <c r="W32" s="6">
         <v>-1.3</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X32" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y32" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>45480</v>
       </c>
@@ -3157,8 +3357,14 @@
       <c r="W33" s="6">
         <v>-1.4000000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X33" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="Y33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>45480</v>
       </c>
@@ -3228,8 +3434,14 @@
       <c r="W34" s="6">
         <v>-0.79999999999999993</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X34" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y34" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>45480</v>
       </c>
@@ -3299,8 +3511,14 @@
       <c r="W35" s="6">
         <v>-0.39999999999999991</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X35" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="Y35" s="6">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>45480</v>
       </c>
@@ -3370,8 +3588,14 @@
       <c r="W36" s="6">
         <v>-0.79999999999999982</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X36" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="Y36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>45480</v>
       </c>
@@ -3441,8 +3665,14 @@
       <c r="W37" s="6">
         <v>-0.60000000000000009</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X37" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="Y37" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>45480</v>
       </c>
@@ -3512,8 +3742,14 @@
       <c r="W38" s="6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X38" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="Y38" s="6">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>45480</v>
       </c>
@@ -3583,8 +3819,14 @@
       <c r="W39" s="6">
         <v>-0.7</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X39" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="Y39" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>45480</v>
       </c>
@@ -3654,8 +3896,14 @@
       <c r="W40" s="6">
         <v>0.40000000000000013</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X40" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="Y40" s="6">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>45480</v>
       </c>
@@ -3725,8 +3973,14 @@
       <c r="W41" s="6">
         <v>-0.30000000000000004</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X41" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="Y41" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>45480</v>
       </c>
@@ -3796,8 +4050,14 @@
       <c r="W42" s="6">
         <v>-0.19999999999999996</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X42" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y42" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>45480</v>
       </c>
@@ -3867,8 +4127,14 @@
       <c r="W43" s="6">
         <v>0.30000000000000004</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X43" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="Y43" s="6">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>45480</v>
       </c>
@@ -3938,8 +4204,14 @@
       <c r="W44" s="6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X44" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="Y44" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>45480</v>
       </c>
@@ -4009,8 +4281,14 @@
       <c r="W45" s="6">
         <v>-0.40000000000000013</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X45" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="Y45" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>45480</v>
       </c>
@@ -4080,8 +4358,14 @@
       <c r="W46" s="6">
         <v>0.19999999999999973</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X46" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="Y46" s="6">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>45480</v>
       </c>
@@ -4151,8 +4435,14 @@
       <c r="W47" s="6">
         <v>-1.2</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X47" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="Y47" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>45480</v>
       </c>
@@ -4222,8 +4512,14 @@
       <c r="W48" s="6">
         <v>-1.3000000000000003</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X48" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="Y48" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>45480</v>
       </c>
@@ -4293,8 +4589,15 @@
       <c r="W49" s="6">
         <v>-0.5</v>
       </c>
+      <c r="X49" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="Y49" s="6">
+        <v>1.6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/base.xlsx
+++ b/base.xlsx
@@ -131,67 +131,67 @@
     <t>Over1.5-H+A</t>
   </si>
   <si>
-    <t>BOLIVIA - DIVISION PROFESIONAL</t>
-  </si>
-  <si>
-    <t>COLOMBIA - PRIMERA A</t>
-  </si>
-  <si>
     <t>EGYPT - PREMIER LEAGUE</t>
   </si>
   <si>
-    <t>SWEDEN - SUPERETTAN</t>
-  </si>
-  <si>
-    <t>National Bank Egypt</t>
-  </si>
-  <si>
-    <t>Pharco</t>
-  </si>
-  <si>
-    <t>Helsingborg</t>
-  </si>
-  <si>
-    <t>Degerfors</t>
-  </si>
-  <si>
-    <t>El Gouna</t>
-  </si>
-  <si>
-    <t>Baladiyat El Mahalla</t>
-  </si>
-  <si>
-    <t>El Ismaily</t>
-  </si>
-  <si>
-    <t>Arab Contractors</t>
-  </si>
-  <si>
     <t>VENEZUELA - LIGA FUTVE</t>
   </si>
   <si>
-    <t>Rayo Zuliano</t>
-  </si>
-  <si>
-    <t>Zamora</t>
-  </si>
-  <si>
-    <t>Dep. Tachira</t>
-  </si>
-  <si>
-    <t>Portuguesa</t>
-  </si>
-  <si>
-    <t>Guabira</t>
-  </si>
-  <si>
-    <t>Santa Cruz</t>
-  </si>
-  <si>
-    <t>Aguilas</t>
-  </si>
-  <si>
-    <t>Jaguares de Cordoba</t>
+    <t>Al Masry</t>
+  </si>
+  <si>
+    <t>ZED</t>
+  </si>
+  <si>
+    <t>Zamalek</t>
+  </si>
+  <si>
+    <t>El Gaish</t>
+  </si>
+  <si>
+    <t>NORWAY - ELITESERIEN</t>
+  </si>
+  <si>
+    <t>Fredrikstad</t>
+  </si>
+  <si>
+    <t>Haugesund</t>
+  </si>
+  <si>
+    <t>NORWAY - OBOS-LIGAEN</t>
+  </si>
+  <si>
+    <t>Sandnes</t>
+  </si>
+  <si>
+    <t>Aalesund</t>
+  </si>
+  <si>
+    <t>Enppi</t>
+  </si>
+  <si>
+    <t>Al Ahly</t>
+  </si>
+  <si>
+    <t>Pyramids</t>
+  </si>
+  <si>
+    <t>El Daklyeh</t>
+  </si>
+  <si>
+    <t>Monagas</t>
+  </si>
+  <si>
+    <t>Universidad Central</t>
+  </si>
+  <si>
+    <t>BRAZIL - SERIE A</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Juventude</t>
   </si>
 </sst>
 </file>
@@ -563,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI166"/>
+  <dimension ref="A1:AI165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,9 +574,9 @@
     <col min="1" max="1" width="3.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -720,106 +720,106 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>45517</v>
+        <v>45518</v>
       </c>
       <c r="C2" s="8">
         <v>0.47916666666666669</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G2" s="9">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H2" s="9">
         <v>0.8</v>
       </c>
       <c r="I2" s="9">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J2" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="K2" s="4">
+        <v>3</v>
+      </c>
+      <c r="L2" s="4">
         <v>2.95</v>
       </c>
-      <c r="K2" s="4">
-        <v>2.95</v>
-      </c>
-      <c r="L2" s="4">
-        <v>2.42</v>
-      </c>
       <c r="M2" s="4">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N2" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="O2" s="4">
         <v>1.65</v>
       </c>
-      <c r="O2" s="4">
-        <v>1.72</v>
-      </c>
       <c r="P2" s="5">
-        <v>6.906399649156846</v>
+        <v>1.3243471356371379</v>
       </c>
       <c r="Q2" s="5">
-        <v>4.7849286632092651</v>
+        <v>5.9560939923818106</v>
       </c>
       <c r="R2" s="5">
-        <v>3.8296094125983018</v>
+        <v>4.1127821591481597</v>
       </c>
       <c r="S2" s="5">
-        <v>2.7406393649407752</v>
+        <v>4.2145047738909147</v>
       </c>
       <c r="T2" s="6">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="U2" s="6">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="V2" s="6">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="W2" s="6">
         <v>1.4</v>
       </c>
       <c r="X2" s="5">
-        <v>1.8352043554559963</v>
+        <v>0.85873821521121807</v>
       </c>
       <c r="Y2" s="5">
-        <v>1.0442483456796532</v>
+        <v>1.3813463793272678</v>
       </c>
       <c r="Z2" s="5">
-        <v>1.2138092371767244</v>
+        <v>1.1129557269667294</v>
       </c>
       <c r="AA2" s="5">
-        <v>1.2071036965454085</v>
+        <v>1.2595517700818202</v>
       </c>
       <c r="AB2" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="AD2" s="6">
         <v>1</v>
       </c>
-      <c r="AD2" s="6">
-        <v>1.6</v>
-      </c>
       <c r="AE2" s="6">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="AF2" s="5">
-        <v>4.8235195070488111</v>
+        <v>2.7694259547640261</v>
       </c>
       <c r="AG2" s="5">
-        <v>4.307269037903783</v>
+        <v>5.0344380757649851</v>
       </c>
       <c r="AH2" s="5">
-        <v>1.5211540260007024</v>
+        <v>1.0591449926465191</v>
       </c>
       <c r="AI2" s="5">
-        <v>1.1290287914281887</v>
+        <v>1.2471510531469985</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
@@ -827,106 +827,106 @@
         <v>2</v>
       </c>
       <c r="B3" s="7">
-        <v>45517</v>
+        <v>45518</v>
       </c>
       <c r="C3" s="8">
-        <v>0.58333333333333337</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3" s="9">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H3" s="9">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I3" s="9">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J3" s="4">
-        <v>2.5499999999999998</v>
+        <v>1.55</v>
       </c>
       <c r="K3" s="4">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="L3" s="4">
-        <v>2.7</v>
+        <v>5.8</v>
       </c>
       <c r="M3" s="4">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="N3" s="4">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="O3" s="4">
-        <v>1.67</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="P3" s="5">
-        <v>2.7766138211382114</v>
+        <v>3.3295781732987235</v>
       </c>
       <c r="Q3" s="5">
-        <v>3.2449152590329065</v>
+        <v>2.293127245418574</v>
       </c>
       <c r="R3" s="5">
-        <v>3.0291545512698548</v>
+        <v>3.9839239631885435</v>
       </c>
       <c r="S3" s="5">
-        <v>3.0742518989577814</v>
+        <v>4.2665898636847341</v>
       </c>
       <c r="T3" s="6">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="U3" s="6">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="V3" s="6">
         <v>0.8</v>
       </c>
       <c r="W3" s="6">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="X3" s="5">
-        <v>1.0441910967731389</v>
+        <v>1.3235401548929957</v>
       </c>
       <c r="Y3" s="5">
-        <v>1.1720412085117968</v>
+        <v>0.89142217726094164</v>
       </c>
       <c r="Z3" s="5">
-        <v>1.0464614618389605</v>
+        <v>1.0997130498379055</v>
       </c>
       <c r="AA3" s="5">
-        <v>1.0967095284742343</v>
+        <v>1.4241534863940217</v>
       </c>
       <c r="AB3" s="6">
-        <v>1</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="AC3" s="6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD3" s="6">
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AE3" s="6">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="AF3" s="5">
-        <v>2.9254328600479962</v>
+        <v>3.7980840184917288</v>
       </c>
       <c r="AG3" s="5">
-        <v>3.1370349051513804</v>
+        <v>3.1385256043035588</v>
       </c>
       <c r="AH3" s="5">
-        <v>1.0704503126236866</v>
+        <v>1.3738468206435086</v>
       </c>
       <c r="AI3" s="5">
-        <v>1.1092513351753785</v>
+        <v>0.99556761354942358</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
@@ -934,106 +934,106 @@
         <v>3</v>
       </c>
       <c r="B4" s="7">
-        <v>45517</v>
+        <v>45518</v>
       </c>
       <c r="C4" s="8">
-        <v>0.625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="G4" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="K4" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="L4" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M4" s="4">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1.83</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="P4" s="5">
+        <v>2.8936067154218037</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>9.5337746732425295</v>
+      </c>
+      <c r="R4" s="5">
+        <v>2.5224102793207388</v>
+      </c>
+      <c r="S4" s="5">
+        <v>4.5230264877880968</v>
+      </c>
+      <c r="T4" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="U4" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="V4" s="6">
         <v>0.6</v>
       </c>
-      <c r="H4" s="9">
+      <c r="W4" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="X4" s="5">
+        <v>1.1448118550821724</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>1.5382879171365791</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>0.91921363703164027</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>1.8259138244093627</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="AE4" s="6">
         <v>0.4</v>
       </c>
-      <c r="I4" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="4">
-        <v>2.27</v>
-      </c>
-      <c r="K4" s="4">
-        <v>2.85</v>
-      </c>
-      <c r="L4" s="4">
-        <v>3.35</v>
-      </c>
-      <c r="M4" s="4">
-        <v>2.1</v>
-      </c>
-      <c r="N4" s="4">
-        <v>1.57</v>
-      </c>
-      <c r="O4" s="4">
-        <v>1.78</v>
-      </c>
-      <c r="P4" s="5">
-        <v>1.732533974927484</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>0.66295022100493217</v>
-      </c>
-      <c r="R4" s="5">
-        <v>2.6041250818806434</v>
-      </c>
-      <c r="S4" s="5">
-        <v>3.5230564372595814</v>
-      </c>
-      <c r="T4" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="U4" s="6">
-        <v>0</v>
-      </c>
-      <c r="V4" s="6">
-        <v>1</v>
-      </c>
-      <c r="W4" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="X4" s="5">
-        <v>0.77959651586780576</v>
-      </c>
-      <c r="Y4" s="5">
-        <v>0.73947843963472304</v>
-      </c>
-      <c r="Z4" s="5">
-        <v>1.0103920693443853</v>
-      </c>
-      <c r="AA4" s="5">
-        <v>1.5845315477620481</v>
-      </c>
-      <c r="AB4" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="AC4" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="AD4" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="AE4" s="6">
-        <v>0.2</v>
-      </c>
       <c r="AF4" s="5">
-        <v>2.6277952060935328</v>
+        <v>3.7083166016049502</v>
       </c>
       <c r="AG4" s="5">
-        <v>1.6335376514427877</v>
+        <v>6.0280924762816337</v>
       </c>
       <c r="AH4" s="5">
-        <v>1.1820640318149269</v>
+        <v>1.4853628397457674</v>
       </c>
       <c r="AI4" s="5">
-        <v>0.87493525448955412</v>
+        <v>1.2287507770841097</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
@@ -1041,13 +1041,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <v>45517</v>
+        <v>45518</v>
       </c>
       <c r="C5" s="8">
-        <v>0.625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>45</v>
@@ -1056,91 +1056,91 @@
         <v>46</v>
       </c>
       <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="J5" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="K5" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1.48</v>
+      </c>
+      <c r="N5" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="O5" s="4">
+        <v>1.44</v>
+      </c>
+      <c r="P5" s="5">
+        <v>4.3512382002704584</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>2.1228404957204283</v>
+      </c>
+      <c r="R5" s="5">
+        <v>6.0718103229087212</v>
+      </c>
+      <c r="S5" s="5">
+        <v>3.2194154728333721</v>
+      </c>
+      <c r="T5" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="U5" s="6">
         <v>0.6</v>
       </c>
-      <c r="H5" s="9">
-        <v>1</v>
-      </c>
-      <c r="I5" s="9">
+      <c r="V5" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="W5" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="X5" s="5">
+        <v>1.3521433617248191</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0.96854823213711483</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>1.79742942304395</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>1.3528357206935866</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="AD5" s="6">
         <v>0.8</v>
       </c>
-      <c r="J5" s="4">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="K5" s="4">
-        <v>2.77</v>
-      </c>
-      <c r="L5" s="4">
-        <v>3.65</v>
-      </c>
-      <c r="M5" s="4">
-        <v>2.15</v>
-      </c>
-      <c r="N5" s="4">
-        <v>1.55</v>
-      </c>
-      <c r="O5" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="P5" s="5">
-        <v>2.1580826991070894</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>5.8498249740068626</v>
-      </c>
-      <c r="R5" s="5">
-        <v>3.5173407104755414</v>
-      </c>
-      <c r="S5" s="5">
-        <v>5.5548759978561959</v>
-      </c>
-      <c r="T5" s="6">
+      <c r="AE5" s="6">
         <v>0.8</v>
       </c>
-      <c r="U5" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="V5" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="W5" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="X5" s="5">
-        <v>0.95675305434486035</v>
-      </c>
-      <c r="Y5" s="5">
-        <v>1.1002629729349607</v>
-      </c>
-      <c r="Z5" s="5">
-        <v>1.1733820600290865</v>
-      </c>
-      <c r="AA5" s="5">
-        <v>1.8157884848596275</v>
-      </c>
-      <c r="AB5" s="6">
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="AC5" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="6">
-        <v>0.4</v>
-      </c>
       <c r="AF5" s="5">
-        <v>3.8564793484816429</v>
+        <v>3.7853268365519153</v>
       </c>
       <c r="AG5" s="5">
-        <v>4.6835828422412025</v>
+        <v>4.0973254093145748</v>
       </c>
       <c r="AH5" s="5">
-        <v>1.3862707696022438</v>
+        <v>1.3524895412092028</v>
       </c>
       <c r="AI5" s="5">
-        <v>1.1368225164820236</v>
+        <v>1.3829888275905324</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
@@ -1148,106 +1148,106 @@
         <v>5</v>
       </c>
       <c r="B6" s="7">
-        <v>45517</v>
+        <v>45518</v>
       </c>
       <c r="C6" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="G6" s="9">
         <v>0.6</v>
       </c>
       <c r="H6" s="9">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I6" s="9">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="4">
-        <v>2.0499999999999998</v>
+        <v>3.6</v>
       </c>
       <c r="K6" s="4">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L6" s="4">
-        <v>3.6</v>
+        <v>2.02</v>
       </c>
       <c r="M6" s="4">
-        <v>2.0699999999999998</v>
+        <v>1.93</v>
       </c>
       <c r="N6" s="4">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O6" s="4">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="P6" s="5">
-        <v>4.2430299042957271</v>
+        <v>3.5667627721255877</v>
       </c>
       <c r="Q6" s="5">
-        <v>2.0190080703938049</v>
+        <v>3.2683463780106208</v>
       </c>
       <c r="R6" s="5">
-        <v>4.722063427906984</v>
+        <v>6.2655456352712662</v>
       </c>
       <c r="S6" s="5">
-        <v>3.2151594133243622</v>
+        <v>4.5825351090621931</v>
       </c>
       <c r="T6" s="6">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="U6" s="6">
-        <v>0.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="V6" s="6">
         <v>1.8</v>
       </c>
       <c r="W6" s="6">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="X6" s="5">
-        <v>1.172061618249219</v>
+        <v>1.2145355897612213</v>
       </c>
       <c r="Y6" s="5">
-        <v>0.81458777705598617</v>
+        <v>1.6036139325417178</v>
       </c>
       <c r="Z6" s="5">
-        <v>1.4395783800548474</v>
+        <v>1.4929270213340611</v>
       </c>
       <c r="AA6" s="5">
-        <v>1.1256634485212644</v>
+        <v>0.86370829806750371</v>
       </c>
       <c r="AB6" s="6">
-        <v>1.2</v>
+        <v>0.79999999999999993</v>
       </c>
       <c r="AC6" s="6">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="AD6" s="6">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="AE6" s="6">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="AF6" s="5">
-        <v>3.7290946588100446</v>
+        <v>4.0746489405938906</v>
       </c>
       <c r="AG6" s="5">
-        <v>3.3705357491503944</v>
+        <v>4.7669460066409437</v>
       </c>
       <c r="AH6" s="5">
-        <v>1.1488625333852416</v>
+        <v>1.0391219439143624</v>
       </c>
       <c r="AI6" s="5">
-        <v>1.1270830785554167</v>
+        <v>1.5482704769378894</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -1255,106 +1255,106 @@
         <v>6</v>
       </c>
       <c r="B7" s="7">
-        <v>45517</v>
+        <v>45518</v>
       </c>
       <c r="C7" s="8">
-        <v>0.78125</v>
+        <v>0.625</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="G7" s="9">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H7" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1.17</v>
+      </c>
+      <c r="K7" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="L7" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1.47</v>
+      </c>
+      <c r="N7" s="4">
+        <v>2.35</v>
+      </c>
+      <c r="O7" s="4">
+        <v>2.15</v>
+      </c>
+      <c r="P7" s="5">
+        <v>2.7694080535730019</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>6.9808431636894737</v>
+      </c>
+      <c r="R7" s="5">
+        <v>4.854152854543953</v>
+      </c>
+      <c r="S7" s="5">
+        <v>3.0585755591454324</v>
+      </c>
+      <c r="T7" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="U7" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="V7" s="6">
         <v>0.6</v>
       </c>
-      <c r="I7" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="4">
-        <v>2.02</v>
-      </c>
-      <c r="K7" s="4">
-        <v>2.92</v>
-      </c>
-      <c r="L7" s="4">
-        <v>3.95</v>
-      </c>
-      <c r="M7" s="4">
-        <v>2.57</v>
-      </c>
-      <c r="N7" s="4">
-        <v>1.38</v>
-      </c>
-      <c r="O7" s="4">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="P7" s="5">
-        <v>2.4379286979286978</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>5.0985272075594663</v>
-      </c>
-      <c r="R7" s="5">
-        <v>2.3489609478630316</v>
-      </c>
-      <c r="S7" s="5">
-        <v>2.6664411027568926</v>
-      </c>
-      <c r="T7" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="U7" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="V7" s="6">
-        <v>0.4</v>
-      </c>
       <c r="W7" s="6">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="X7" s="5">
-        <v>1.1124091718602136</v>
+        <v>1.4034844808449782</v>
       </c>
       <c r="Y7" s="5">
-        <v>1.3267477589379115</v>
+        <v>1.1071309432621892</v>
       </c>
       <c r="Z7" s="5">
-        <v>0.85292529682738016</v>
+        <v>1.0348568813304539</v>
       </c>
       <c r="AA7" s="5">
-        <v>1.135704706536625</v>
+        <v>1.3829971409901687</v>
       </c>
       <c r="AB7" s="6">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="AC7" s="6">
-        <v>0.89999999999999991</v>
+        <v>0.7</v>
       </c>
       <c r="AD7" s="6">
         <v>2.4</v>
       </c>
       <c r="AE7" s="6">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="AF7" s="5">
-        <v>2.5521849003427954</v>
+        <v>2.913991806359217</v>
       </c>
       <c r="AG7" s="5">
-        <v>3.7237440777112489</v>
+        <v>5.9174980091167129</v>
       </c>
       <c r="AH7" s="5">
-        <v>1.1240569391984194</v>
+        <v>1.3932408109175736</v>
       </c>
       <c r="AI7" s="5">
-        <v>1.0898365278826458</v>
+        <v>1.0709939122963217</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -1362,106 +1362,106 @@
         <v>7</v>
       </c>
       <c r="B8" s="7">
-        <v>45517</v>
+        <v>45518</v>
       </c>
       <c r="C8" s="8">
-        <v>0.83333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="G8" s="9">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H8" s="9">
         <v>0.8</v>
       </c>
       <c r="I8" s="9">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="J8" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2.77</v>
+      </c>
+      <c r="L8" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="M8" s="4">
+        <v>2.37</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="O8" s="4">
+        <v>1.98</v>
+      </c>
+      <c r="P8" s="5">
+        <v>3.1979484538871015</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>3.5794740451682601</v>
+      </c>
+      <c r="R8" s="5">
+        <v>3.710785297790566</v>
+      </c>
+      <c r="S8" s="5">
+        <v>5.4312442393546556</v>
+      </c>
+      <c r="T8" s="6">
         <v>1.6</v>
       </c>
-      <c r="K8" s="4">
-        <v>3.8</v>
-      </c>
-      <c r="L8" s="4">
-        <v>5.25</v>
-      </c>
-      <c r="M8" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="N8" s="4">
-        <v>2.1</v>
-      </c>
-      <c r="O8" s="4">
-        <v>1.73</v>
-      </c>
-      <c r="P8" s="5">
-        <v>4.6524649122807018</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>5.0938241133528974</v>
-      </c>
-      <c r="R8" s="5">
-        <v>5.3989924099798285</v>
-      </c>
-      <c r="S8" s="5">
-        <v>2.5973695324283557</v>
-      </c>
-      <c r="T8" s="6">
-        <v>2.4</v>
-      </c>
       <c r="U8" s="6">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="V8" s="6">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="W8" s="6">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="X8" s="5">
-        <v>1.717961117270616</v>
+        <v>1.315341102782384</v>
       </c>
       <c r="Y8" s="5">
-        <v>1.1465088795670764</v>
+        <v>1.2280961648455877</v>
       </c>
       <c r="Z8" s="5">
-        <v>1.2632248661201797</v>
+        <v>1.0557595247341165</v>
       </c>
       <c r="AA8" s="5">
-        <v>1.5022815891048054</v>
+        <v>1.3799812619387852</v>
       </c>
       <c r="AB8" s="6">
-        <v>2.2000000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="AC8" s="6">
-        <v>0.89999999999999991</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD8" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="AE8" s="6">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="AF8" s="5">
-        <v>3.6249172223545285</v>
+        <v>4.3145963466208785</v>
       </c>
       <c r="AG8" s="5">
-        <v>5.246408261666363</v>
+        <v>3.6451296714794132</v>
       </c>
       <c r="AH8" s="5">
-        <v>1.6101213531877105</v>
+        <v>1.3476611823605846</v>
       </c>
       <c r="AI8" s="5">
-        <v>1.204866872843628</v>
+        <v>1.1419278447898522</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
@@ -1469,13 +1469,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="7">
-        <v>45517</v>
+        <v>45518</v>
       </c>
       <c r="C9" s="8">
-        <v>0.89583333333333337</v>
+        <v>0.8125</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>54</v>
@@ -1487,88 +1487,88 @@
         <v>0.8</v>
       </c>
       <c r="H9" s="9">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I9" s="9">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="J9" s="4">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="K9" s="4">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="L9" s="4">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="M9" s="4">
-        <v>2.25</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="N9" s="4">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="O9" s="4">
-        <v>2.1</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="P9" s="5">
-        <v>3.197893291221785</v>
+        <v>2.6751587301587301</v>
       </c>
       <c r="Q9" s="5">
-        <v>1.1829312710324908</v>
+        <v>4.2394554627710672</v>
       </c>
       <c r="R9" s="5">
-        <v>3.9206806337294147</v>
+        <v>7.1201614910123396</v>
       </c>
       <c r="S9" s="5">
-        <v>1.8970775675936964</v>
+        <v>3.2489350649350648</v>
       </c>
       <c r="T9" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="U9" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="V9" s="6">
         <v>1.4</v>
       </c>
-      <c r="U9" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="V9" s="6">
+      <c r="W9" s="6">
+        <v>2</v>
+      </c>
+      <c r="X9" s="5">
+        <v>1.1072394756648998</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>1.0219229952386004</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>1.3317408560917041</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>1.4846627963205989</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="AC9" s="6">
         <v>1</v>
-      </c>
-      <c r="W9" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="X9" s="5">
-        <v>1.2022336080864922</v>
-      </c>
-      <c r="Y9" s="5">
-        <v>0.76447005482933916</v>
-      </c>
-      <c r="Z9" s="5">
-        <v>1.0966272793403067</v>
-      </c>
-      <c r="AA9" s="5">
-        <v>0.88454320310994206</v>
-      </c>
-      <c r="AB9" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AC9" s="6">
-        <v>0.6</v>
       </c>
       <c r="AD9" s="6">
         <v>1</v>
       </c>
       <c r="AE9" s="6">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AF9" s="5">
-        <v>2.5474854294077405</v>
+        <v>2.9620468975468972</v>
       </c>
       <c r="AG9" s="5">
-        <v>2.5518059523809526</v>
+        <v>5.6798084768917034</v>
       </c>
       <c r="AH9" s="5">
-        <v>1.043388405598217</v>
+        <v>1.2959511359927494</v>
       </c>
       <c r="AI9" s="5">
-        <v>0.93054866708482287</v>
+        <v>1.1768319256651523</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
@@ -1578,20 +1578,12 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="5"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -1600,20 +1592,12 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="5"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -1622,20 +1606,12 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="5"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -1644,20 +1620,12 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="5"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -1666,20 +1634,12 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -1688,20 +1648,12 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -1710,2168 +1662,1601 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="5"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="5"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="5"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="5"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="5"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="5"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="5"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="5"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="5"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="5"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="5"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="5"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="5"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="5"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="5"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="5"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="5"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="5"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="5"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="5"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="7"/>
       <c r="C38" s="8"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="7"/>
       <c r="C42" s="8"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="7"/>
       <c r="C44" s="8"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="7"/>
       <c r="C46" s="8"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="7"/>
       <c r="C47" s="8"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="7"/>
       <c r="C48" s="8"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="7"/>
       <c r="C49" s="8"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="7"/>
       <c r="C50" s="8"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="7"/>
       <c r="C52" s="8"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="7"/>
       <c r="C54" s="8"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="7"/>
       <c r="C55" s="8"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="7"/>
       <c r="C56" s="8"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="7"/>
       <c r="C57" s="8"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="7"/>
       <c r="C58" s="8"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="7"/>
       <c r="C60" s="8"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="7"/>
       <c r="C62" s="8"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="7"/>
       <c r="C63" s="8"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="7"/>
       <c r="C64" s="8"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="7"/>
       <c r="C65" s="8"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="7"/>
       <c r="C66" s="8"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="7"/>
       <c r="C67" s="8"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="7"/>
       <c r="C68" s="8"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="7"/>
       <c r="C69" s="8"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="7"/>
       <c r="C70" s="8"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="7"/>
       <c r="C71" s="8"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="7"/>
       <c r="C72" s="8"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="7"/>
       <c r="C73" s="8"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="7"/>
       <c r="C74" s="8"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
-      <c r="O74" s="5"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="7"/>
       <c r="C75" s="8"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="7"/>
       <c r="C76" s="8"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="5"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="7"/>
       <c r="C77" s="8"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5"/>
-      <c r="O77" s="5"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="7"/>
       <c r="C78" s="8"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
-      <c r="M78" s="5"/>
-      <c r="N78" s="5"/>
-      <c r="O78" s="5"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="7"/>
       <c r="C79" s="8"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
-      <c r="M79" s="5"/>
-      <c r="N79" s="5"/>
-      <c r="O79" s="5"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="7"/>
       <c r="C80" s="8"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
-      <c r="M80" s="5"/>
-      <c r="N80" s="5"/>
-      <c r="O80" s="5"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="7"/>
       <c r="C81" s="8"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
-      <c r="M81" s="5"/>
-      <c r="N81" s="5"/>
-      <c r="O81" s="5"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="7"/>
       <c r="C82" s="8"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
-      <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="7"/>
       <c r="C83" s="8"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="7"/>
       <c r="C84" s="8"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
-      <c r="M84" s="5"/>
-      <c r="N84" s="5"/>
-      <c r="O84" s="5"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="7"/>
       <c r="C85" s="8"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
-      <c r="M85" s="5"/>
-      <c r="N85" s="5"/>
-      <c r="O85" s="5"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="7"/>
       <c r="C86" s="8"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
-      <c r="N86" s="5"/>
-      <c r="O86" s="5"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="7"/>
       <c r="C87" s="8"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
-      <c r="O87" s="5"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="7"/>
       <c r="C88" s="8"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
-      <c r="M88" s="5"/>
-      <c r="N88" s="5"/>
-      <c r="O88" s="5"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="7"/>
       <c r="C89" s="8"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
-      <c r="O89" s="5"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="7"/>
       <c r="C90" s="8"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
-      <c r="O90" s="5"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="7"/>
       <c r="C91" s="8"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
-      <c r="M91" s="5"/>
-      <c r="N91" s="5"/>
-      <c r="O91" s="5"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="7"/>
       <c r="C92" s="8"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
-      <c r="M92" s="5"/>
-      <c r="N92" s="5"/>
-      <c r="O92" s="5"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="7"/>
       <c r="C93" s="8"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
-      <c r="M93" s="5"/>
-      <c r="N93" s="5"/>
-      <c r="O93" s="5"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="7"/>
       <c r="C94" s="8"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
-      <c r="M94" s="5"/>
-      <c r="N94" s="5"/>
-      <c r="O94" s="5"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="7"/>
       <c r="C95" s="8"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
-      <c r="M95" s="5"/>
-      <c r="N95" s="5"/>
-      <c r="O95" s="5"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="7"/>
       <c r="C96" s="8"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
-      <c r="M96" s="5"/>
-      <c r="N96" s="5"/>
-      <c r="O96" s="5"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="7"/>
       <c r="C97" s="8"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
-      <c r="M97" s="5"/>
-      <c r="N97" s="5"/>
-      <c r="O97" s="5"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="7"/>
       <c r="C98" s="8"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
-      <c r="M98" s="5"/>
-      <c r="N98" s="5"/>
-      <c r="O98" s="5"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="7"/>
       <c r="C99" s="8"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
-      <c r="M99" s="5"/>
-      <c r="N99" s="5"/>
-      <c r="O99" s="5"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="7"/>
       <c r="C100" s="8"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
-      <c r="M100" s="5"/>
-      <c r="N100" s="5"/>
-      <c r="O100" s="5"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="7"/>
       <c r="C101" s="8"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
-      <c r="M101" s="5"/>
-      <c r="N101" s="5"/>
-      <c r="O101" s="5"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="7"/>
       <c r="C102" s="8"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
-      <c r="M102" s="5"/>
-      <c r="N102" s="5"/>
-      <c r="O102" s="5"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="7"/>
       <c r="C103" s="8"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="4"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
-      <c r="M103" s="5"/>
-      <c r="N103" s="5"/>
-      <c r="O103" s="5"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="7"/>
       <c r="C104" s="8"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
-      <c r="M104" s="5"/>
-      <c r="N104" s="5"/>
-      <c r="O104" s="5"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="7"/>
       <c r="C105" s="8"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
-      <c r="M105" s="5"/>
-      <c r="N105" s="5"/>
-      <c r="O105" s="5"/>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="7"/>
       <c r="C106" s="8"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
-      <c r="M106" s="5"/>
-      <c r="N106" s="5"/>
-      <c r="O106" s="5"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="7"/>
       <c r="C107" s="8"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
-      <c r="M107" s="5"/>
-      <c r="N107" s="5"/>
-      <c r="O107" s="5"/>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="7"/>
       <c r="C108" s="8"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
-      <c r="M108" s="5"/>
-      <c r="N108" s="5"/>
-      <c r="O108" s="5"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="7"/>
       <c r="C109" s="8"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
-      <c r="M109" s="5"/>
-      <c r="N109" s="5"/>
-      <c r="O109" s="5"/>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="7"/>
       <c r="C110" s="8"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
-      <c r="M110" s="5"/>
-      <c r="N110" s="5"/>
-      <c r="O110" s="5"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="7"/>
       <c r="C111" s="8"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
-      <c r="M111" s="5"/>
-      <c r="N111" s="5"/>
-      <c r="O111" s="5"/>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="7"/>
       <c r="C112" s="8"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
-      <c r="M112" s="5"/>
-      <c r="N112" s="5"/>
-      <c r="O112" s="5"/>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="7"/>
       <c r="C113" s="8"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
-      <c r="M113" s="5"/>
-      <c r="N113" s="5"/>
-      <c r="O113" s="5"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="7"/>
       <c r="C114" s="8"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
-      <c r="I114" s="4"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
-      <c r="M114" s="5"/>
-      <c r="N114" s="5"/>
-      <c r="O114" s="5"/>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="7"/>
       <c r="C115" s="8"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
-      <c r="M115" s="5"/>
-      <c r="N115" s="5"/>
-      <c r="O115" s="5"/>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="7"/>
       <c r="C116" s="8"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
-      <c r="M116" s="5"/>
-      <c r="N116" s="5"/>
-      <c r="O116" s="5"/>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="7"/>
       <c r="C117" s="8"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
-      <c r="M117" s="5"/>
-      <c r="N117" s="5"/>
-      <c r="O117" s="5"/>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="7"/>
       <c r="C118" s="8"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
-      <c r="M118" s="5"/>
-      <c r="N118" s="5"/>
-      <c r="O118" s="5"/>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="7"/>
       <c r="C119" s="8"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
-      <c r="M119" s="5"/>
-      <c r="N119" s="5"/>
-      <c r="O119" s="5"/>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="7"/>
       <c r="C120" s="8"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
-      <c r="M120" s="5"/>
-      <c r="N120" s="5"/>
-      <c r="O120" s="5"/>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="7"/>
       <c r="C121" s="8"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
-      <c r="M121" s="5"/>
-      <c r="N121" s="5"/>
-      <c r="O121" s="5"/>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="7"/>
       <c r="C122" s="8"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
-      <c r="M122" s="5"/>
-      <c r="N122" s="5"/>
-      <c r="O122" s="5"/>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="7"/>
       <c r="C123" s="8"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
-      <c r="M123" s="5"/>
-      <c r="N123" s="5"/>
-      <c r="O123" s="5"/>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="7"/>
       <c r="C124" s="8"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
-      <c r="I124" s="4"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>
-      <c r="M124" s="5"/>
-      <c r="N124" s="5"/>
-      <c r="O124" s="5"/>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="7"/>
       <c r="C125" s="8"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="4"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
-      <c r="M125" s="5"/>
-      <c r="N125" s="5"/>
-      <c r="O125" s="5"/>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="7"/>
       <c r="C126" s="8"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
-      <c r="I126" s="4"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
-      <c r="M126" s="5"/>
-      <c r="N126" s="5"/>
-      <c r="O126" s="5"/>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="7"/>
       <c r="C127" s="8"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
-      <c r="I127" s="4"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
       <c r="L127" s="5"/>
-      <c r="M127" s="5"/>
-      <c r="N127" s="5"/>
-      <c r="O127" s="5"/>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="7"/>
       <c r="C128" s="8"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
-      <c r="I128" s="4"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
       <c r="J128" s="5"/>
       <c r="K128" s="5"/>
       <c r="L128" s="5"/>
-      <c r="M128" s="5"/>
-      <c r="N128" s="5"/>
-      <c r="O128" s="5"/>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="7"/>
       <c r="C129" s="8"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
-      <c r="I129" s="4"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
       <c r="L129" s="5"/>
-      <c r="M129" s="5"/>
-      <c r="N129" s="5"/>
-      <c r="O129" s="5"/>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="7"/>
       <c r="C130" s="8"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-      <c r="I130" s="4"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
       <c r="J130" s="5"/>
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
-      <c r="M130" s="5"/>
-      <c r="N130" s="5"/>
-      <c r="O130" s="5"/>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="7"/>
       <c r="C131" s="8"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-      <c r="I131" s="4"/>
-      <c r="J131" s="5"/>
-      <c r="K131" s="5"/>
-      <c r="L131" s="5"/>
-      <c r="M131" s="5"/>
-      <c r="N131" s="5"/>
-      <c r="O131" s="5"/>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="7"/>
       <c r="C132" s="8"/>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
-      <c r="J132" s="5"/>
-      <c r="K132" s="5"/>
-      <c r="L132" s="5"/>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="7"/>
       <c r="C133" s="8"/>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
-      <c r="J133" s="5"/>
-      <c r="K133" s="5"/>
-      <c r="L133" s="5"/>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="7"/>
       <c r="C134" s="8"/>
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
-      <c r="J134" s="5"/>
-      <c r="K134" s="5"/>
-      <c r="L134" s="5"/>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="7"/>
       <c r="C135" s="8"/>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
-      <c r="J135" s="5"/>
-      <c r="K135" s="5"/>
-      <c r="L135" s="5"/>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="7"/>
       <c r="C136" s="8"/>
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
-      <c r="J136" s="5"/>
-      <c r="K136" s="5"/>
-      <c r="L136" s="5"/>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="7"/>
       <c r="C137" s="8"/>
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
-      <c r="J137" s="5"/>
-      <c r="K137" s="5"/>
-      <c r="L137" s="5"/>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="7"/>
       <c r="C138" s="8"/>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
-      <c r="J138" s="5"/>
-      <c r="K138" s="5"/>
-      <c r="L138" s="5"/>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="7"/>
       <c r="C139" s="8"/>
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
-      <c r="J139" s="5"/>
-      <c r="K139" s="5"/>
-      <c r="L139" s="5"/>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="7"/>
       <c r="C140" s="8"/>
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
-      <c r="J140" s="5"/>
-      <c r="K140" s="5"/>
-      <c r="L140" s="5"/>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="7"/>
       <c r="C141" s="8"/>
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
-      <c r="J141" s="5"/>
-      <c r="K141" s="5"/>
-      <c r="L141" s="5"/>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="7"/>
       <c r="C142" s="8"/>
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
-      <c r="K142" s="5"/>
-      <c r="L142" s="5"/>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="7"/>
       <c r="C143" s="8"/>
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
-      <c r="J143" s="5"/>
-      <c r="K143" s="5"/>
-      <c r="L143" s="5"/>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="7"/>
       <c r="C144" s="8"/>
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
-      <c r="J144" s="5"/>
-      <c r="K144" s="5"/>
-      <c r="L144" s="5"/>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="7"/>
       <c r="C145" s="8"/>
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
-      <c r="J145" s="5"/>
-      <c r="K145" s="5"/>
-      <c r="L145" s="5"/>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="7"/>
       <c r="C146" s="8"/>
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
-      <c r="J146" s="5"/>
-      <c r="K146" s="5"/>
-      <c r="L146" s="5"/>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="7"/>
       <c r="C147" s="8"/>
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
-      <c r="J147" s="5"/>
-      <c r="K147" s="5"/>
-      <c r="L147" s="5"/>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="7"/>
       <c r="C148" s="8"/>
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
-      <c r="J148" s="5"/>
-      <c r="K148" s="5"/>
-      <c r="L148" s="5"/>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="7"/>
       <c r="C149" s="8"/>
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
-      <c r="J149" s="5"/>
-      <c r="K149" s="5"/>
-      <c r="L149" s="5"/>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="7"/>
       <c r="C150" s="8"/>
       <c r="G150" s="5"/>
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
-      <c r="J150" s="5"/>
-      <c r="K150" s="5"/>
-      <c r="L150" s="5"/>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="7"/>
       <c r="C151" s="8"/>
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
-      <c r="J151" s="5"/>
-      <c r="K151" s="5"/>
-      <c r="L151" s="5"/>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="7"/>
       <c r="C152" s="8"/>
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
-      <c r="J152" s="5"/>
-      <c r="K152" s="5"/>
-      <c r="L152" s="5"/>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="7"/>
       <c r="C153" s="8"/>
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
-      <c r="J153" s="5"/>
-      <c r="K153" s="5"/>
-      <c r="L153" s="5"/>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="7"/>
       <c r="C154" s="8"/>
       <c r="G154" s="5"/>
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
-      <c r="J154" s="5"/>
-      <c r="K154" s="5"/>
-      <c r="L154" s="5"/>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="7"/>
       <c r="C155" s="8"/>
       <c r="G155" s="5"/>
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
-      <c r="J155" s="5"/>
-      <c r="K155" s="5"/>
-      <c r="L155" s="5"/>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="7"/>
       <c r="C156" s="8"/>
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
       <c r="I156" s="5"/>
-      <c r="J156" s="5"/>
-      <c r="K156" s="5"/>
-      <c r="L156" s="5"/>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="7"/>
       <c r="C157" s="8"/>
       <c r="G157" s="5"/>
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
-      <c r="J157" s="5"/>
-      <c r="K157" s="5"/>
-      <c r="L157" s="5"/>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="7"/>
       <c r="C158" s="8"/>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
       <c r="I158" s="5"/>
-      <c r="J158" s="5"/>
-      <c r="K158" s="5"/>
-      <c r="L158" s="5"/>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="7"/>
       <c r="C159" s="8"/>
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
-      <c r="J159" s="5"/>
-      <c r="K159" s="5"/>
-      <c r="L159" s="5"/>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="7"/>
       <c r="C160" s="8"/>
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
-      <c r="J160" s="5"/>
-      <c r="K160" s="5"/>
-      <c r="L160" s="5"/>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="7"/>
       <c r="C161" s="8"/>
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
-      <c r="J161" s="5"/>
-      <c r="K161" s="5"/>
-      <c r="L161" s="5"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="7"/>
       <c r="C162" s="8"/>
       <c r="G162" s="5"/>
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
-      <c r="J162" s="5"/>
-      <c r="K162" s="5"/>
-      <c r="L162" s="5"/>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="7"/>
       <c r="C163" s="8"/>
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
-      <c r="J163" s="5"/>
-      <c r="K163" s="5"/>
-      <c r="L163" s="5"/>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="7"/>
       <c r="C164" s="8"/>
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
-      <c r="J164" s="5"/>
-      <c r="K164" s="5"/>
-      <c r="L164" s="5"/>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="7"/>
       <c r="C165" s="8"/>
       <c r="G165" s="5"/>
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
-      <c r="J165" s="5"/>
-      <c r="K165" s="5"/>
-      <c r="L165" s="5"/>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
-      <c r="B166" s="7"/>
-      <c r="C166" s="8"/>
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="5"/>
-      <c r="J166" s="5"/>
-      <c r="K166" s="5"/>
-      <c r="L166" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
